--- a/Cleaned Data/Job data.xlsx
+++ b/Cleaned Data/Job data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3BE8D7A-CCAA-2A4B-B081-8649D1E8BECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD2C15-9FA7-FE45-A3E1-CAA1EE9FA070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{30FC58CF-0FB9-E64F-8728-B2480F32F19D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="960">
   <si>
     <t>Dental Hygienists</t>
   </si>
@@ -2907,6 +2907,12 @@
   </si>
   <si>
     <t>Score out of 100</t>
+  </si>
+  <si>
+    <t>Instructions:</t>
+  </si>
+  <si>
+    <t>Search engine for their specific job, risk level is from 1-100 and that is what dictates the scale</t>
   </si>
 </sst>
 </file>
@@ -3265,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683020E6-DEEE-EC43-A39F-9AC342BD908D}">
-  <dimension ref="A1:B967"/>
+  <dimension ref="A1:E967"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3277,7 +3283,7 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>956</v>
       </c>
@@ -3285,23 +3291,29 @@
         <v>957</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3309,7 +3321,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3341,7 +3353,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3349,7 +3361,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3377,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3381,7 +3393,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/Cleaned Data/Job data.xlsx
+++ b/Cleaned Data/Job data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBF8315-8209-3A45-AACE-FE652B0B8806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE390FC-28C8-A94C-BA2F-6C3F04349684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="1020" windowWidth="20200" windowHeight="18520" xr2:uid="{30FC58CF-0FB9-E64F-8728-B2480F32F19D}"/>
+    <workbookView xWindow="15080" yWindow="460" windowWidth="18240" windowHeight="18520" xr2:uid="{30FC58CF-0FB9-E64F-8728-B2480F32F19D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="987">
   <si>
     <t>Dental Hygienists</t>
   </si>
@@ -2945,9 +2945,6 @@
     <t>Vet Workers</t>
   </si>
   <si>
-    <t>Paramedics</t>
-  </si>
-  <si>
     <t>Trainers</t>
   </si>
   <si>
@@ -2958,6 +2955,45 @@
   </si>
   <si>
     <t>Teachers/School workers</t>
+  </si>
+  <si>
+    <t>Health Worker (outside hospital)</t>
+  </si>
+  <si>
+    <t>Jail/Prison Workers</t>
+  </si>
+  <si>
+    <t>Entertainment Industry</t>
+  </si>
+  <si>
+    <t>Human Services</t>
+  </si>
+  <si>
+    <t>Officers/Patrol/Fire Fighting</t>
+  </si>
+  <si>
+    <t>Amusement workers</t>
+  </si>
+  <si>
+    <t>Investigators</t>
+  </si>
+  <si>
+    <t>Court workers/jobs</t>
+  </si>
+  <si>
+    <t>Bank workers/jobs</t>
+  </si>
+  <si>
+    <t>Construction Workers/Cleaners</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>Funeral workers/Mortician/Dealing with bodies</t>
+  </si>
+  <si>
+    <t>Restaurant Worker/Food</t>
   </si>
 </sst>
 </file>
@@ -3326,16 +3362,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683020E6-DEEE-EC43-A39F-9AC342BD908D}">
   <dimension ref="A1:D957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="B128" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3350,7 +3386,7 @@
         <v>958</v>
       </c>
       <c r="D1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3476,7 +3512,7 @@
         <v>966</v>
       </c>
       <c r="D10" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3545,8 +3581,8 @@
       <c r="C15" t="s">
         <v>966</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>971</v>
+      <c r="D15" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3560,7 +3596,7 @@
         <v>962</v>
       </c>
       <c r="D16" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3574,7 +3610,7 @@
         <v>966</v>
       </c>
       <c r="D17" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3587,6 +3623,9 @@
       <c r="C18" t="s">
         <v>966</v>
       </c>
+      <c r="D18" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -3598,6 +3637,9 @@
       <c r="C19" t="s">
         <v>964</v>
       </c>
+      <c r="D19" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -3607,7 +3649,10 @@
         <v>84.1</v>
       </c>
       <c r="C20" t="s">
-        <v>960</v>
+        <v>961</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3620,6 +3665,9 @@
       <c r="C21" t="s">
         <v>962</v>
       </c>
+      <c r="D21" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -3631,6 +3679,9 @@
       <c r="C22" t="s">
         <v>962</v>
       </c>
+      <c r="D22" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -3642,6 +3693,9 @@
       <c r="C23" t="s">
         <v>966</v>
       </c>
+      <c r="D23" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -3653,6 +3707,9 @@
       <c r="C24" t="s">
         <v>967</v>
       </c>
+      <c r="D24" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3664,6 +3721,9 @@
       <c r="C25" t="s">
         <v>962</v>
       </c>
+      <c r="D25" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -3675,6 +3735,9 @@
       <c r="C26" t="s">
         <v>967</v>
       </c>
+      <c r="D26" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -3686,6 +3749,9 @@
       <c r="C27" t="s">
         <v>967</v>
       </c>
+      <c r="D27" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -3697,6 +3763,9 @@
       <c r="C28" t="s">
         <v>964</v>
       </c>
+      <c r="D28" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3708,6 +3777,9 @@
       <c r="C29" t="s">
         <v>966</v>
       </c>
+      <c r="D29" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3719,6 +3791,9 @@
       <c r="C30" t="s">
         <v>963</v>
       </c>
+      <c r="D30" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -3750,7 +3825,7 @@
         <v>79.3</v>
       </c>
       <c r="C33" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3936,8 +4011,8 @@
       <c r="B50" s="1">
         <v>72.2</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>966</v>
+      <c r="C50" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3959,7 +4034,7 @@
         <v>71.900000000000006</v>
       </c>
       <c r="C52" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3980,8 +4055,8 @@
       <c r="B54" s="1">
         <v>70.8</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>970</v>
+      <c r="C54" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3992,7 +4067,7 @@
         <v>70.599999999999994</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4036,7 +4111,7 @@
         <v>69.8</v>
       </c>
       <c r="C59" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4047,7 +4122,7 @@
         <v>69.099999999999994</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4068,8 +4143,8 @@
       <c r="B62" s="1">
         <v>69</v>
       </c>
-      <c r="C62" t="s">
-        <v>963</v>
+      <c r="C62" s="2" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4090,8 +4165,8 @@
       <c r="B64" s="1">
         <v>68.2</v>
       </c>
-      <c r="C64" t="s">
-        <v>960</v>
+      <c r="C64" s="2" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4102,7 +4177,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4113,7 +4188,7 @@
         <v>67.400000000000006</v>
       </c>
       <c r="C66" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4124,7 +4199,7 @@
         <v>67.3</v>
       </c>
       <c r="C67" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4145,6 +4220,9 @@
       <c r="B69" s="1">
         <v>66.400000000000006</v>
       </c>
+      <c r="C69" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -4165,7 +4243,7 @@
         <v>65.8</v>
       </c>
       <c r="C71" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4175,6 +4253,9 @@
       <c r="B72" s="1">
         <v>62.5</v>
       </c>
+      <c r="C72" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -4183,6 +4264,9 @@
       <c r="B73" s="1">
         <v>62.3</v>
       </c>
+      <c r="C73" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -4191,6 +4275,9 @@
       <c r="B74" s="1">
         <v>62.2</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -4210,6 +4297,9 @@
       <c r="B76" s="1">
         <v>61.4</v>
       </c>
+      <c r="C76" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -4218,6 +4308,9 @@
       <c r="B77" s="1">
         <v>61</v>
       </c>
+      <c r="C77" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -4226,6 +4319,9 @@
       <c r="B78" s="1">
         <v>61</v>
       </c>
+      <c r="C78" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -4234,6 +4330,9 @@
       <c r="B79" s="1">
         <v>60.9</v>
       </c>
+      <c r="C79" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -4253,6 +4352,9 @@
       <c r="B81" s="1">
         <v>60.8</v>
       </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -4261,6 +4363,9 @@
       <c r="B82" s="1">
         <v>60.7</v>
       </c>
+      <c r="C82" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -4269,6 +4374,9 @@
       <c r="B83" s="1">
         <v>60.7</v>
       </c>
+      <c r="C83" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
@@ -4277,6 +4385,9 @@
       <c r="B84" s="1">
         <v>60.4</v>
       </c>
+      <c r="C84" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
@@ -4285,6 +4396,9 @@
       <c r="B85" s="1">
         <v>60.3</v>
       </c>
+      <c r="C85" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -4293,6 +4407,9 @@
       <c r="B86" s="1">
         <v>59</v>
       </c>
+      <c r="C86" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -4301,6 +4418,9 @@
       <c r="B87" s="1">
         <v>58.8</v>
       </c>
+      <c r="C87" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -4309,6 +4429,9 @@
       <c r="B88" s="1">
         <v>58.3</v>
       </c>
+      <c r="C88" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
@@ -4317,6 +4440,9 @@
       <c r="B89" s="1">
         <v>58.2</v>
       </c>
+      <c r="C89" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
@@ -4325,6 +4451,9 @@
       <c r="B90" s="1">
         <v>58</v>
       </c>
+      <c r="C90" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
@@ -4333,6 +4462,9 @@
       <c r="B91" s="1">
         <v>57.2</v>
       </c>
+      <c r="C91" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -4341,6 +4473,9 @@
       <c r="B92" s="1">
         <v>56.9</v>
       </c>
+      <c r="C92" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
@@ -4349,6 +4484,9 @@
       <c r="B93" s="1">
         <v>56.7</v>
       </c>
+      <c r="C93" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -4357,6 +4495,9 @@
       <c r="B94" s="1">
         <v>56.6</v>
       </c>
+      <c r="C94" s="2" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -4376,6 +4517,9 @@
       <c r="B96" s="1">
         <v>56</v>
       </c>
+      <c r="C96" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -4384,6 +4528,9 @@
       <c r="B97" s="1">
         <v>55.9</v>
       </c>
+      <c r="C97" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -4392,6 +4539,9 @@
       <c r="B98" s="1">
         <v>55.8</v>
       </c>
+      <c r="C98" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -4400,6 +4550,9 @@
       <c r="B99" s="1">
         <v>55.7</v>
       </c>
+      <c r="C99" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -4408,6 +4561,9 @@
       <c r="B100" s="1">
         <v>55.6</v>
       </c>
+      <c r="C100" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -4416,6 +4572,9 @@
       <c r="B101" s="1">
         <v>55.6</v>
       </c>
+      <c r="C101" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -4425,7 +4584,7 @@
         <v>55.2</v>
       </c>
       <c r="C102" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4435,6 +4594,9 @@
       <c r="B103" s="1">
         <v>55.2</v>
       </c>
+      <c r="C103" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -4443,6 +4605,9 @@
       <c r="B104" s="1">
         <v>55</v>
       </c>
+      <c r="C104" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -4462,6 +4627,9 @@
       <c r="B106" s="1">
         <v>53.8</v>
       </c>
+      <c r="C106" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -4470,6 +4638,9 @@
       <c r="B107" s="1">
         <v>53.8</v>
       </c>
+      <c r="C107" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
@@ -4478,6 +4649,9 @@
       <c r="B108" s="1">
         <v>52.9</v>
       </c>
+      <c r="C108" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -4497,6 +4671,9 @@
       <c r="B110" s="1">
         <v>52.7</v>
       </c>
+      <c r="C110" s="2" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -4505,6 +4682,9 @@
       <c r="B111" s="1">
         <v>52.4</v>
       </c>
+      <c r="C111" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -4513,261 +4693,360 @@
       <c r="B112" s="1">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="1">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="1">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="1">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="1">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="1">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="1">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C120" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="1">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="1">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="1">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="1">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="1">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C131" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="1">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="1">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C134" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>47.9</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>47.9</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="1">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>47.6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.2">

--- a/Cleaned Data/Job data.xlsx
+++ b/Cleaned Data/Job data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE390FC-28C8-A94C-BA2F-6C3F04349684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22A66E2-1839-5F4F-B099-9269CA5E4230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="460" windowWidth="18240" windowHeight="18520" xr2:uid="{30FC58CF-0FB9-E64F-8728-B2480F32F19D}"/>
+    <workbookView xWindow="7420" yWindow="460" windowWidth="25800" windowHeight="19300" xr2:uid="{30FC58CF-0FB9-E64F-8728-B2480F32F19D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="990">
   <si>
     <t>Dental Hygienists</t>
   </si>
@@ -2906,18 +2928,12 @@
     <t>Occupation</t>
   </si>
   <si>
-    <t>Score out of 100</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Dental Job</t>
   </si>
   <si>
-    <t>Lab Technician</t>
-  </si>
-  <si>
     <t>Technician</t>
   </si>
   <si>
@@ -2994,6 +3010,21 @@
   </si>
   <si>
     <t>Restaurant Worker/Food</t>
+  </si>
+  <si>
+    <t>Risk Score</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Medical Technologist</t>
+  </si>
+  <si>
+    <t>Medical Technician</t>
+  </si>
+  <si>
+    <t>All Others (average)</t>
   </si>
 </sst>
 </file>
@@ -3042,10 +3073,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3360,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683020E6-DEEE-EC43-A39F-9AC342BD908D}">
-  <dimension ref="A1:D957"/>
+  <dimension ref="A1:E957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3372,24 +3406,27 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>956</v>
       </c>
       <c r="B1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C1" t="s">
         <v>957</v>
       </c>
-      <c r="C1" t="s">
-        <v>958</v>
-      </c>
       <c r="D1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>970</v>
+      </c>
+      <c r="E1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3397,13 +3434,17 @@
         <v>99.7</v>
       </c>
       <c r="C2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUM(B2,B5,B8)/3</f>
+        <v>94.766666666666652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3411,13 +3452,17 @@
         <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>962</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B6,B19,B34:B37,B28,B45,B95,B109:B110)/11</f>
+        <v>73.390909090909091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3425,13 +3470,17 @@
         <v>94.6</v>
       </c>
       <c r="C4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D4" t="s">
         <v>963</v>
       </c>
-      <c r="D4" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f>SUM(B7,B40,B38)/3</f>
+        <v>82.100000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3439,13 +3488,17 @@
         <v>92.5</v>
       </c>
       <c r="C5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D5" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">SUM(B3:B4,B9:B11/B13:B15,B17:B18,B23,B29:B30,B32,B39,B42,B51,B56,B58,B61:B62,B64,B68,B120)/24</f>
+        <v>57.240455352697815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3453,13 +3506,17 @@
         <v>92.4</v>
       </c>
       <c r="C6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D6" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+      <c r="E6">
+        <f>SUM(B12,B16,B21:B22,B25,B49,B53,B75,B80,B105)/10</f>
+        <v>74.149999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3467,13 +3524,17 @@
         <v>92.3</v>
       </c>
       <c r="C7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D7" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>987</v>
+      </c>
+      <c r="E7">
+        <f>SUM(B26:B27,B46,B48,B63)/5</f>
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3481,13 +3542,16 @@
         <v>92.1</v>
       </c>
       <c r="C8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D8" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3495,13 +3559,17 @@
         <v>91.8</v>
       </c>
       <c r="C9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>988</v>
+      </c>
+      <c r="E9">
+        <f>SUM(B20,B33,B59,B73,B101,B127)/6</f>
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3509,13 +3577,17 @@
         <v>91.1</v>
       </c>
       <c r="C10" t="s">
+        <v>964</v>
+      </c>
+      <c r="D10" t="s">
         <v>966</v>
       </c>
-      <c r="D10" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f>SUM(B41,B76,B115,B147)/4</f>
+        <v>58.949999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3523,13 +3595,16 @@
         <v>90.2</v>
       </c>
       <c r="C11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D11" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3537,13 +3612,17 @@
         <v>90.1</v>
       </c>
       <c r="C12" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+      <c r="E12">
+        <f>SUM(B44,B57,B70,B129)/4</f>
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3551,13 +3630,16 @@
         <v>90.1</v>
       </c>
       <c r="C13" t="s">
-        <v>966</v>
-      </c>
-      <c r="D13" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="E13" s="1">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3565,13 +3647,17 @@
         <v>88.4</v>
       </c>
       <c r="C14" t="s">
-        <v>966</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>964</v>
+      </c>
+      <c r="D14" t="s">
+        <v>971</v>
+      </c>
+      <c r="E14">
+        <f>SUM(B66:B67,B71,B91,B98:B100,B102:B103,B107)/10</f>
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3579,13 +3665,17 @@
         <v>88.3</v>
       </c>
       <c r="C15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D15" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>969</v>
+      </c>
+      <c r="E15">
+        <f>SUM(B60,B65,B74,B94,B131,B134,B141)/7</f>
+        <v>57.428571428571431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3593,13 +3683,17 @@
         <v>86.1</v>
       </c>
       <c r="C16" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D16" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>972</v>
+      </c>
+      <c r="E16">
+        <f>SUM(B50,B52,B54,B69,B72,B79,B82:B83,B92:B93,B112,B123,B130,B136,B87)/15</f>
+        <v>59.993333333333339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3607,13 +3701,17 @@
         <v>85.3</v>
       </c>
       <c r="C17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D17" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+      <c r="E17">
+        <f>SUM(B77,B84)/2</f>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3621,13 +3719,17 @@
         <v>85.1</v>
       </c>
       <c r="C18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D18" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>974</v>
+      </c>
+      <c r="E18">
+        <f>SUM(B78,B125:B126,B119,B111)/5</f>
+        <v>53.059999999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3635,13 +3737,16 @@
         <v>84.2</v>
       </c>
       <c r="C19" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D19" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3649,13 +3754,17 @@
         <v>84.1</v>
       </c>
       <c r="C20" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="E20">
+        <f>SUM(B88,B113:B114,B116,B139,B143)/6</f>
+        <v>51.54999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3663,13 +3772,17 @@
         <v>82.1</v>
       </c>
       <c r="C21" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D21" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>975</v>
+      </c>
+      <c r="E21">
+        <f>SUM(B128,B135,B89:B90,B85)/5</f>
+        <v>55.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3677,13 +3790,17 @@
         <v>81.7</v>
       </c>
       <c r="C22" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D22" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>SUM(B96:B97,B104,B108,B138)/5</f>
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3691,13 +3808,16 @@
         <v>81.3</v>
       </c>
       <c r="C23" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D23" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>978</v>
+      </c>
+      <c r="E23" s="1">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3705,13 +3825,17 @@
         <v>81.2</v>
       </c>
       <c r="C24" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D24" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+      <c r="E24">
+        <f>SUM(B124,B117)/2</f>
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3719,13 +3843,17 @@
         <v>81.099999999999994</v>
       </c>
       <c r="C25" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D25" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f>SUM(B133,B142, B118)/3</f>
+        <v>49.366666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3733,13 +3861,17 @@
         <v>80.7</v>
       </c>
       <c r="C26" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D26" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+      <c r="E26">
+        <f>SUM(B122,C226,C543)/3</f>
+        <v>16.900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3747,13 +3879,16 @@
         <v>80.5</v>
       </c>
       <c r="C27" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D27" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3761,13 +3896,16 @@
         <v>80.3</v>
       </c>
       <c r="C28" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D28" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>984</v>
+      </c>
+      <c r="E28">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3775,13 +3913,16 @@
         <v>80.3</v>
       </c>
       <c r="C29" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D29" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+      <c r="E29" s="1">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3789,13 +3930,16 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D30" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+        <v>989</v>
+      </c>
+      <c r="E30">
+        <v>23.431000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3806,7 +3950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3814,7 +3958,7 @@
         <v>79.900000000000006</v>
       </c>
       <c r="C32" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3825,7 +3969,7 @@
         <v>79.3</v>
       </c>
       <c r="C33" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3836,7 +3980,7 @@
         <v>79.3</v>
       </c>
       <c r="C34" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3847,7 +3991,7 @@
         <v>78.7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3858,7 +4002,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3869,7 +4013,7 @@
         <v>77.8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3880,7 +4024,7 @@
         <v>77.7</v>
       </c>
       <c r="C38" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3891,7 +4035,7 @@
         <v>76.900000000000006</v>
       </c>
       <c r="C39" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3902,7 +4046,7 @@
         <v>76.3</v>
       </c>
       <c r="C40" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3913,7 +4057,7 @@
         <v>75.7</v>
       </c>
       <c r="C41" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3924,7 +4068,7 @@
         <v>75.400000000000006</v>
       </c>
       <c r="C42" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3946,7 +4090,7 @@
         <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3957,7 +4101,7 @@
         <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3968,7 +4112,7 @@
         <v>74.8</v>
       </c>
       <c r="C46" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3979,7 +4123,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="C47" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -3990,7 +4134,7 @@
         <v>74.5</v>
       </c>
       <c r="C48" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4001,7 +4145,7 @@
         <v>72.5</v>
       </c>
       <c r="C49" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4012,7 +4156,7 @@
         <v>72.2</v>
       </c>
       <c r="C50" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4023,7 +4167,7 @@
         <v>72.2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4034,7 +4178,7 @@
         <v>71.900000000000006</v>
       </c>
       <c r="C52" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4045,7 +4189,7 @@
         <v>70.8</v>
       </c>
       <c r="C53" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4056,7 +4200,7 @@
         <v>70.8</v>
       </c>
       <c r="C54" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4067,7 +4211,7 @@
         <v>70.599999999999994</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4078,7 +4222,7 @@
         <v>70.2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4089,7 +4233,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="C57" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4100,7 +4244,7 @@
         <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4111,7 +4255,7 @@
         <v>69.8</v>
       </c>
       <c r="C59" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4122,7 +4266,7 @@
         <v>69.099999999999994</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4133,7 +4277,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4144,7 +4288,7 @@
         <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4155,7 +4299,7 @@
         <v>68.5</v>
       </c>
       <c r="C63" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4166,7 +4310,7 @@
         <v>68.2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4177,7 +4321,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4188,7 +4332,7 @@
         <v>67.400000000000006</v>
       </c>
       <c r="C66" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4199,7 +4343,7 @@
         <v>67.3</v>
       </c>
       <c r="C67" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4210,7 +4354,7 @@
         <v>67.2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4221,7 +4365,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="C69" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4232,7 +4376,7 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4243,7 +4387,7 @@
         <v>65.8</v>
       </c>
       <c r="C71" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4254,7 +4398,7 @@
         <v>62.5</v>
       </c>
       <c r="C72" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4265,7 +4409,7 @@
         <v>62.3</v>
       </c>
       <c r="C73" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4276,7 +4420,7 @@
         <v>62.2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4287,7 +4431,7 @@
         <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4298,7 +4442,7 @@
         <v>61.4</v>
       </c>
       <c r="C76" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4309,7 +4453,7 @@
         <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4320,7 +4464,7 @@
         <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4331,7 +4475,7 @@
         <v>60.9</v>
       </c>
       <c r="C79" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4342,7 +4486,7 @@
         <v>60.9</v>
       </c>
       <c r="C80" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4364,7 +4508,7 @@
         <v>60.7</v>
       </c>
       <c r="C82" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4375,7 +4519,7 @@
         <v>60.7</v>
       </c>
       <c r="C83" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4386,7 +4530,7 @@
         <v>60.4</v>
       </c>
       <c r="C84" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4397,7 +4541,7 @@
         <v>60.3</v>
       </c>
       <c r="C85" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4408,7 +4552,7 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4419,7 +4563,7 @@
         <v>58.8</v>
       </c>
       <c r="C87" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4430,7 +4574,7 @@
         <v>58.3</v>
       </c>
       <c r="C88" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4441,7 +4585,7 @@
         <v>58.2</v>
       </c>
       <c r="C89" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4452,7 +4596,7 @@
         <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4463,7 +4607,7 @@
         <v>57.2</v>
       </c>
       <c r="C91" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4474,7 +4618,7 @@
         <v>56.9</v>
       </c>
       <c r="C92" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4485,7 +4629,7 @@
         <v>56.7</v>
       </c>
       <c r="C93" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4496,7 +4640,7 @@
         <v>56.6</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4507,7 +4651,7 @@
         <v>56.1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4518,7 +4662,7 @@
         <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4529,7 +4673,7 @@
         <v>55.9</v>
       </c>
       <c r="C97" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4540,7 +4684,7 @@
         <v>55.8</v>
       </c>
       <c r="C98" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4551,7 +4695,7 @@
         <v>55.7</v>
       </c>
       <c r="C99" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4562,7 +4706,7 @@
         <v>55.6</v>
       </c>
       <c r="C100" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4573,7 +4717,7 @@
         <v>55.6</v>
       </c>
       <c r="C101" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4584,7 +4728,7 @@
         <v>55.2</v>
       </c>
       <c r="C102" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4595,7 +4739,7 @@
         <v>55.2</v>
       </c>
       <c r="C103" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4606,7 +4750,7 @@
         <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4617,7 +4761,7 @@
         <v>54.2</v>
       </c>
       <c r="C105" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4628,7 +4772,7 @@
         <v>53.8</v>
       </c>
       <c r="C106" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4639,7 +4783,7 @@
         <v>53.8</v>
       </c>
       <c r="C107" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4650,7 +4794,7 @@
         <v>52.9</v>
       </c>
       <c r="C108" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4661,7 +4805,7 @@
         <v>52.8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4672,7 +4816,7 @@
         <v>52.7</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4683,7 +4827,7 @@
         <v>52.4</v>
       </c>
       <c r="C111" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4694,7 +4838,7 @@
         <v>52.2</v>
       </c>
       <c r="C112" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4705,7 +4849,7 @@
         <v>51.9</v>
       </c>
       <c r="C113" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4716,7 +4860,7 @@
         <v>51.9</v>
       </c>
       <c r="C114" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4727,7 +4871,7 @@
         <v>51.8</v>
       </c>
       <c r="C115" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4738,7 +4882,7 @@
         <v>51.6</v>
       </c>
       <c r="C116" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4749,7 +4893,7 @@
         <v>51.3</v>
       </c>
       <c r="C117" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4760,7 +4904,7 @@
         <v>51.3</v>
       </c>
       <c r="C118" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4771,7 +4915,7 @@
         <v>51.2</v>
       </c>
       <c r="C119" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4782,7 +4926,7 @@
         <v>51.1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4793,7 +4937,7 @@
         <v>50.9</v>
       </c>
       <c r="C121" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4804,7 +4948,7 @@
         <v>50.7</v>
       </c>
       <c r="C122" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4815,7 +4959,7 @@
         <v>50.6</v>
       </c>
       <c r="C123" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4826,7 +4970,7 @@
         <v>50.5</v>
       </c>
       <c r="C124" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4837,7 +4981,7 @@
         <v>50.4</v>
       </c>
       <c r="C125" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4848,7 +4992,7 @@
         <v>50.3</v>
       </c>
       <c r="C126" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4859,7 +5003,7 @@
         <v>50.3</v>
       </c>
       <c r="C127" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4870,7 +5014,7 @@
         <v>50.2</v>
       </c>
       <c r="C128" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4881,7 +5025,7 @@
         <v>50.1</v>
       </c>
       <c r="C129" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4892,7 +5036,7 @@
         <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4903,7 +5047,7 @@
         <v>49.5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4914,7 +5058,7 @@
         <v>49.3</v>
       </c>
       <c r="C132" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4925,7 +5069,7 @@
         <v>49</v>
       </c>
       <c r="C133" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4936,7 +5080,7 @@
         <v>48.7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4947,7 +5091,7 @@
         <v>48.6</v>
       </c>
       <c r="C135" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4958,7 +5102,7 @@
         <v>48.6</v>
       </c>
       <c r="C136" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4969,7 +5113,7 @@
         <v>48.4</v>
       </c>
       <c r="C137" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4980,7 +5124,7 @@
         <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4991,7 +5135,7 @@
         <v>47.9</v>
       </c>
       <c r="C139" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5002,7 +5146,7 @@
         <v>47.9</v>
       </c>
       <c r="C140" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5013,7 +5157,7 @@
         <v>47.8</v>
       </c>
       <c r="C141" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5024,7 +5168,7 @@
         <v>47.8</v>
       </c>
       <c r="C142" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5035,7 +5179,7 @@
         <v>47.7</v>
       </c>
       <c r="C143" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5046,7 +5190,7 @@
         <v>47.6</v>
       </c>
       <c r="C144" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5064,6 +5208,9 @@
       <c r="B146" s="1">
         <v>47.2</v>
       </c>
+      <c r="C146" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
@@ -5073,7 +5220,7 @@
         <v>46.9</v>
       </c>
       <c r="C147" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5267,9 +5414,7 @@
       <c r="B171" s="1">
         <v>42.7</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>964</v>
-      </c>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
@@ -5439,7 +5584,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -5447,7 +5592,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -5455,7 +5600,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -5463,7 +5608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -5471,7 +5616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -5479,7 +5624,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -5487,7 +5632,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -5495,7 +5640,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -5503,7 +5648,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -5511,7 +5656,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -5519,7 +5664,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -5527,18 +5672,15 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="C204" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -5546,7 +5688,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -5554,7 +5696,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -5562,7 +5704,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -5698,7 +5840,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -5706,15 +5848,18 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -5722,7 +5867,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -5730,7 +5875,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -5738,7 +5883,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -5746,7 +5891,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -5754,7 +5899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
@@ -5762,7 +5907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -5770,7 +5915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -5778,7 +5923,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -5786,7 +5931,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -5794,7 +5939,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -5802,7 +5947,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -5810,7 +5955,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -5818,7 +5963,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -6041,9 +6186,7 @@
       <c r="B267" s="1">
         <v>34.5</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>964</v>
-      </c>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
@@ -6228,9 +6371,7 @@
       <c r="B290" s="1">
         <v>33.5</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>964</v>
-      </c>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
@@ -6600,7 +6741,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -6608,7 +6749,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -6616,7 +6757,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -6624,29 +6765,23 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B340" s="1">
         <v>31.1</v>
       </c>
-      <c r="C340" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B341" s="1">
         <v>31.1</v>
       </c>
-      <c r="C341" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
@@ -6654,18 +6789,15 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B343" s="1">
         <v>31</v>
       </c>
-      <c r="C343" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
@@ -6673,7 +6805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -6681,7 +6813,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
@@ -6689,7 +6821,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
@@ -6697,7 +6829,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
@@ -6705,7 +6837,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
@@ -6713,7 +6845,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
@@ -6721,7 +6853,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
@@ -6729,7 +6861,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
@@ -6737,7 +6869,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -6745,7 +6877,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
@@ -6753,7 +6885,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
@@ -6761,7 +6893,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
@@ -6769,7 +6901,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
@@ -6777,7 +6909,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
@@ -6785,7 +6917,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
@@ -6793,7 +6925,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
@@ -6801,7 +6933,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
@@ -6809,7 +6941,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
@@ -6817,7 +6949,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -6825,7 +6957,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
@@ -6833,18 +6965,15 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B365" s="1">
         <v>30.1</v>
       </c>
-      <c r="C365" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
@@ -6852,7 +6981,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
@@ -6860,7 +6989,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
@@ -6868,7 +6997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
@@ -6876,7 +7005,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
@@ -6884,7 +7013,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
@@ -6892,7 +7021,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
@@ -6900,7 +7029,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
@@ -6908,7 +7037,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
@@ -6916,7 +7045,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
@@ -6924,7 +7053,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
@@ -6932,7 +7061,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
@@ -6940,7 +7069,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
@@ -6948,7 +7077,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
@@ -6956,18 +7085,15 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B380" s="1">
         <v>29.4</v>
       </c>
-      <c r="C380" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
@@ -6975,7 +7101,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
@@ -6983,7 +7109,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
@@ -6991,7 +7117,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
@@ -6999,7 +7125,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
@@ -7007,18 +7133,15 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B386" s="1">
         <v>29.2</v>
       </c>
-      <c r="C386" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
@@ -7026,7 +7149,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
@@ -7034,7 +7157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
@@ -7042,7 +7165,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
@@ -7050,7 +7173,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
@@ -7058,7 +7181,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
@@ -7066,7 +7189,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
@@ -7074,7 +7197,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
@@ -7082,7 +7205,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
@@ -7090,7 +7213,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -7098,7 +7221,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
@@ -7106,7 +7229,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
@@ -7114,7 +7237,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
@@ -7122,7 +7245,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
@@ -7386,18 +7509,15 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B433" s="1">
         <v>26.8</v>
       </c>
-      <c r="C433" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>432</v>
       </c>
@@ -7405,7 +7525,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>433</v>
       </c>
@@ -7413,7 +7533,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>434</v>
       </c>
@@ -7421,7 +7541,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>435</v>
       </c>
@@ -7429,7 +7549,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>436</v>
       </c>
@@ -7437,7 +7557,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>437</v>
       </c>
@@ -7445,7 +7565,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>438</v>
       </c>
@@ -7453,7 +7573,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>439</v>
       </c>
@@ -7461,7 +7581,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>440</v>
       </c>
@@ -7469,7 +7589,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>441</v>
       </c>
@@ -7477,7 +7597,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>442</v>
       </c>
@@ -7485,7 +7605,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>443</v>
       </c>
@@ -7493,7 +7613,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>444</v>
       </c>
@@ -7501,7 +7621,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>445</v>
       </c>
@@ -7509,7 +7629,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>446</v>
       </c>
@@ -7517,7 +7637,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>447</v>
       </c>
@@ -7525,7 +7645,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>448</v>
       </c>
@@ -7533,7 +7653,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>449</v>
       </c>
@@ -7541,7 +7661,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>450</v>
       </c>
@@ -7549,7 +7669,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>451</v>
       </c>
@@ -7557,7 +7677,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>452</v>
       </c>
@@ -7565,7 +7685,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>453</v>
       </c>
@@ -7573,7 +7693,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>454</v>
       </c>
@@ -7581,7 +7701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>455</v>
       </c>
@@ -7589,7 +7709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>456</v>
       </c>
@@ -7597,18 +7717,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B459" s="1">
         <v>26</v>
       </c>
-      <c r="C459" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>458</v>
       </c>
@@ -7616,7 +7733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>459</v>
       </c>
@@ -7624,7 +7741,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>460</v>
       </c>
@@ -7632,7 +7749,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>461</v>
       </c>
@@ -7640,7 +7757,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>462</v>
       </c>
@@ -7648,7 +7765,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>463</v>
       </c>
@@ -7656,7 +7773,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>464</v>
       </c>
@@ -7664,7 +7781,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>465</v>
       </c>
@@ -7672,18 +7789,15 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B468" s="1">
         <v>25.7</v>
       </c>
-      <c r="C468" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>467</v>
       </c>
@@ -7691,7 +7805,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>468</v>
       </c>
@@ -7699,7 +7813,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>469</v>
       </c>
@@ -7707,7 +7821,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>470</v>
       </c>
@@ -7715,7 +7829,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>471</v>
       </c>
@@ -7723,7 +7837,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>472</v>
       </c>
@@ -7731,7 +7845,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>473</v>
       </c>
@@ -7739,7 +7853,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>474</v>
       </c>
@@ -7747,7 +7861,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>475</v>
       </c>
@@ -7755,7 +7869,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>476</v>
       </c>
@@ -7763,7 +7877,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>477</v>
       </c>
@@ -7771,18 +7885,15 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B480" s="1">
         <v>25.2</v>
       </c>
-      <c r="C480" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>479</v>
       </c>
@@ -7790,7 +7901,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>480</v>
       </c>
@@ -7798,18 +7909,15 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B483" s="1">
         <v>25.1</v>
       </c>
-      <c r="C483" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>482</v>
       </c>
@@ -7817,7 +7925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>483</v>
       </c>
@@ -7825,7 +7933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>484</v>
       </c>
@@ -7833,18 +7941,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B487" s="1">
         <v>25</v>
       </c>
-      <c r="C487" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>486</v>
       </c>
@@ -7852,7 +7957,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>487</v>
       </c>
@@ -7860,7 +7965,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>488</v>
       </c>
@@ -7868,7 +7973,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>489</v>
       </c>
@@ -7876,7 +7981,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>490</v>
       </c>
@@ -7884,7 +7989,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>491</v>
       </c>
@@ -7892,7 +7997,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>492</v>
       </c>
@@ -7900,7 +8005,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>493</v>
       </c>
@@ -7908,7 +8013,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>494</v>
       </c>
@@ -7916,7 +8021,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>495</v>
       </c>
@@ -7924,7 +8029,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>496</v>
       </c>
@@ -7932,18 +8037,15 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B499" s="1">
         <v>24.6</v>
       </c>
-      <c r="C499" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>498</v>
       </c>
@@ -7951,7 +8053,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>499</v>
       </c>
@@ -7959,7 +8061,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>500</v>
       </c>
@@ -7967,7 +8069,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>501</v>
       </c>
@@ -7975,7 +8077,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>502</v>
       </c>
@@ -7983,7 +8085,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>503</v>
       </c>
@@ -7991,7 +8093,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>504</v>
       </c>
@@ -7999,7 +8101,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>505</v>
       </c>
@@ -8007,7 +8109,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>506</v>
       </c>
@@ -8015,7 +8117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>507</v>
       </c>
@@ -8023,7 +8125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>508</v>
       </c>
@@ -8031,18 +8133,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B511" s="1">
         <v>23.9</v>
       </c>
-      <c r="C511" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>510</v>
       </c>
@@ -8050,7 +8149,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>511</v>
       </c>
@@ -8058,18 +8157,15 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B514" s="1">
         <v>23.9</v>
       </c>
-      <c r="C514" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>513</v>
       </c>
@@ -8077,7 +8173,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>514</v>
       </c>
@@ -8085,7 +8181,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>515</v>
       </c>
@@ -8093,7 +8189,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>516</v>
       </c>
@@ -8101,7 +8197,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>517</v>
       </c>
@@ -8109,7 +8205,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>518</v>
       </c>
@@ -8117,7 +8213,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>519</v>
       </c>
@@ -8125,7 +8221,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>520</v>
       </c>
@@ -8133,7 +8229,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>521</v>
       </c>
@@ -8141,7 +8237,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>522</v>
       </c>
@@ -8149,7 +8245,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>523</v>
       </c>
@@ -8157,7 +8253,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>524</v>
       </c>
@@ -8165,7 +8261,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>525</v>
       </c>
@@ -8173,7 +8269,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>526</v>
       </c>
@@ -8188,9 +8284,6 @@
       <c r="B529" s="1">
         <v>23.5</v>
       </c>
-      <c r="C529" t="s">
-        <v>961</v>
-      </c>
     </row>
     <row r="530" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
@@ -8223,9 +8316,6 @@
       <c r="B533" s="1">
         <v>23.4</v>
       </c>
-      <c r="C533" t="s">
-        <v>961</v>
-      </c>
     </row>
     <row r="534" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
@@ -8306,6 +8396,9 @@
       <c r="B543" s="1">
         <v>23</v>
       </c>
+      <c r="C543" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="544" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
@@ -8315,18 +8408,15 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B545" s="1">
         <v>22.9</v>
       </c>
-      <c r="C545" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>544</v>
       </c>
@@ -8334,7 +8424,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>545</v>
       </c>
@@ -8342,7 +8432,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>546</v>
       </c>
@@ -8350,7 +8440,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>547</v>
       </c>
@@ -8358,7 +8448,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>548</v>
       </c>
@@ -8366,7 +8456,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>549</v>
       </c>
@@ -8374,7 +8464,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>550</v>
       </c>
@@ -8382,7 +8472,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>551</v>
       </c>
@@ -8390,18 +8480,15 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B554" s="1">
         <v>22.7</v>
       </c>
-      <c r="C554" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>553</v>
       </c>
@@ -8409,7 +8496,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>554</v>
       </c>
@@ -8417,7 +8504,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>555</v>
       </c>
@@ -8425,7 +8512,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>556</v>
       </c>
@@ -8433,7 +8520,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>557</v>
       </c>
@@ -8441,7 +8528,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>558</v>
       </c>
@@ -8449,7 +8536,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>559</v>
       </c>
@@ -8457,7 +8544,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>560</v>
       </c>
@@ -8465,7 +8552,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>561</v>
       </c>
@@ -8473,7 +8560,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>562</v>
       </c>
@@ -8481,7 +8568,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>563</v>
       </c>
@@ -8489,7 +8576,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>564</v>
       </c>
@@ -8497,7 +8584,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>565</v>
       </c>
@@ -8505,7 +8592,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>566</v>
       </c>
@@ -8513,7 +8600,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>567</v>
       </c>
@@ -8521,7 +8608,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>568</v>
       </c>
@@ -8529,18 +8616,15 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B571" s="1">
         <v>22.1</v>
       </c>
-      <c r="C571" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>570</v>
       </c>
@@ -8548,7 +8632,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>571</v>
       </c>
@@ -8556,7 +8640,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>572</v>
       </c>
@@ -8564,7 +8648,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>573</v>
       </c>
@@ -8572,7 +8656,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>574</v>
       </c>
@@ -8580,18 +8664,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>575</v>
       </c>
       <c r="B577" s="1">
         <v>21.9</v>
       </c>
-      <c r="C577" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>576</v>
       </c>
@@ -8599,7 +8680,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>577</v>
       </c>
@@ -8607,7 +8688,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>578</v>
       </c>
@@ -8615,7 +8696,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>579</v>
       </c>
@@ -8623,18 +8704,15 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B582" s="1">
         <v>21.7</v>
       </c>
-      <c r="C582" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>581</v>
       </c>
@@ -8642,7 +8720,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>582</v>
       </c>
@@ -8650,7 +8728,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>583</v>
       </c>
@@ -8658,7 +8736,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>584</v>
       </c>
@@ -8666,7 +8744,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>585</v>
       </c>
@@ -8674,7 +8752,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>586</v>
       </c>
@@ -8682,7 +8760,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>587</v>
       </c>
@@ -8690,18 +8768,15 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B590" s="1">
         <v>21.4</v>
       </c>
-      <c r="C590" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>589</v>
       </c>
@@ -8709,7 +8784,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>590</v>
       </c>
@@ -8717,7 +8792,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>591</v>
       </c>
@@ -8725,7 +8800,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>592</v>
       </c>
@@ -8733,7 +8808,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>593</v>
       </c>
@@ -8741,7 +8816,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>594</v>
       </c>
@@ -8749,7 +8824,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>595</v>
       </c>
@@ -8757,7 +8832,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>596</v>
       </c>
@@ -8765,7 +8840,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>597</v>
       </c>
@@ -8773,18 +8848,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>598</v>
       </c>
       <c r="B600" s="1">
         <v>20.9</v>
       </c>
-      <c r="C600" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>599</v>
       </c>
@@ -8792,7 +8864,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>600</v>
       </c>
@@ -8800,7 +8872,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>601</v>
       </c>
@@ -8808,7 +8880,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>602</v>
       </c>
@@ -8816,7 +8888,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>603</v>
       </c>
@@ -8824,7 +8896,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>604</v>
       </c>
@@ -8832,7 +8904,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>605</v>
       </c>
@@ -8840,7 +8912,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>606</v>
       </c>
@@ -8848,7 +8920,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>607</v>
       </c>
@@ -8856,18 +8928,15 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B610" s="1">
         <v>20.7</v>
       </c>
-      <c r="C610" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>609</v>
       </c>
@@ -8875,7 +8944,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>610</v>
       </c>
@@ -8883,18 +8952,15 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>611</v>
       </c>
       <c r="B613" s="1">
         <v>20.6</v>
       </c>
-      <c r="C613" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>612</v>
       </c>
@@ -8902,7 +8968,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>613</v>
       </c>
@@ -8910,7 +8976,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>614</v>
       </c>
@@ -8918,7 +8984,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>615</v>
       </c>
@@ -8926,7 +8992,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>616</v>
       </c>
@@ -8934,7 +9000,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>617</v>
       </c>
@@ -8942,7 +9008,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>618</v>
       </c>
@@ -8950,7 +9016,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>619</v>
       </c>
@@ -8958,7 +9024,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>620</v>
       </c>
@@ -8966,7 +9032,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>621</v>
       </c>
@@ -8974,7 +9040,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>622</v>
       </c>
@@ -8982,7 +9048,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>623</v>
       </c>
@@ -8990,7 +9056,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>624</v>
       </c>
@@ -8998,7 +9064,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>625</v>
       </c>
@@ -9006,7 +9072,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>626</v>
       </c>
@@ -9014,7 +9080,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>627</v>
       </c>
@@ -9022,7 +9088,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>628</v>
       </c>
@@ -9030,7 +9096,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>629</v>
       </c>
@@ -9038,7 +9104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>630</v>
       </c>
@@ -9046,7 +9112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>631</v>
       </c>
@@ -9054,7 +9120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>632</v>
       </c>
@@ -9062,18 +9128,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>633</v>
       </c>
       <c r="B635" s="1">
         <v>20</v>
       </c>
-      <c r="C635" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="636" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>634</v>
       </c>
@@ -9081,7 +9144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>635</v>
       </c>
@@ -9089,7 +9152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>636</v>
       </c>
@@ -9097,7 +9160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>637</v>
       </c>
@@ -9105,7 +9168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>638</v>
       </c>
@@ -9113,18 +9176,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B641" s="1">
         <v>20</v>
       </c>
-      <c r="C641" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="642" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>640</v>
       </c>
@@ -9132,18 +9192,15 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B643" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="C643" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="644" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>642</v>
       </c>
@@ -9151,7 +9208,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>643</v>
       </c>
@@ -9159,7 +9216,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>644</v>
       </c>
@@ -9167,7 +9224,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>645</v>
       </c>
@@ -9175,7 +9232,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>646</v>
       </c>
@@ -9183,29 +9240,23 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B649" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="C649" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="650" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>648</v>
       </c>
       <c r="B650" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="C650" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="651" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>649</v>
       </c>
@@ -9213,7 +9264,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>650</v>
       </c>
@@ -9221,18 +9272,15 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B653" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="C653" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="654" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>652</v>
       </c>
@@ -9240,7 +9288,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>653</v>
       </c>
@@ -9248,7 +9296,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>654</v>
       </c>
@@ -9256,7 +9304,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>655</v>
       </c>
@@ -9264,7 +9312,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>656</v>
       </c>
@@ -9272,7 +9320,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="659" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>657</v>
       </c>
@@ -9280,7 +9328,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>658</v>
       </c>
@@ -9288,18 +9336,15 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B661" s="1">
         <v>19.3</v>
       </c>
-      <c r="C661" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="662" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>660</v>
       </c>
@@ -9307,7 +9352,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="663" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>661</v>
       </c>
@@ -9315,7 +9360,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>662</v>
       </c>
@@ -9323,7 +9368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="665" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>663</v>
       </c>
@@ -9331,7 +9376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>664</v>
       </c>
@@ -9339,7 +9384,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>665</v>
       </c>
@@ -9347,7 +9392,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="668" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>666</v>
       </c>
@@ -9355,18 +9400,15 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B669" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="C669" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="670" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>668</v>
       </c>
@@ -9374,7 +9416,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="671" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>669</v>
       </c>
@@ -9382,7 +9424,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>670</v>
       </c>
@@ -9518,7 +9560,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>687</v>
       </c>
@@ -9526,7 +9568,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>688</v>
       </c>
@@ -9534,7 +9576,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>689</v>
       </c>
@@ -9542,7 +9584,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>690</v>
       </c>
@@ -9550,7 +9592,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>691</v>
       </c>
@@ -9558,7 +9600,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>692</v>
       </c>
@@ -9566,18 +9608,15 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B695" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="C695" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="696" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>694</v>
       </c>
@@ -9585,7 +9624,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>695</v>
       </c>
@@ -9593,7 +9632,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>696</v>
       </c>
@@ -9601,7 +9640,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
         <v>697</v>
       </c>
@@ -9609,7 +9648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>698</v>
       </c>
@@ -9617,7 +9656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>699</v>
       </c>
@@ -9625,7 +9664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>700</v>
       </c>
@@ -9633,7 +9672,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>701</v>
       </c>
@@ -9641,7 +9680,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>702</v>
       </c>
@@ -9649,7 +9688,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>703</v>
       </c>
@@ -9657,7 +9696,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>704</v>
       </c>
@@ -9665,7 +9704,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
         <v>705</v>
       </c>
@@ -9673,18 +9712,15 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B708" s="1">
         <v>17.8</v>
       </c>
-      <c r="C708" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="709" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="709" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>707</v>
       </c>
@@ -9692,7 +9728,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>708</v>
       </c>
@@ -9700,7 +9736,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
         <v>709</v>
       </c>
@@ -9708,7 +9744,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>710</v>
       </c>
@@ -9716,7 +9752,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>711</v>
       </c>
@@ -9724,7 +9760,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>712</v>
       </c>
@@ -9732,7 +9768,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>713</v>
       </c>
@@ -9740,7 +9776,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>714</v>
       </c>
@@ -9748,18 +9784,15 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B717" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="C717" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="718" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>716</v>
       </c>
@@ -9767,7 +9800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
         <v>717</v>
       </c>
@@ -9775,7 +9808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>718</v>
       </c>
@@ -9783,18 +9816,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B721" s="1">
         <v>17</v>
       </c>
-      <c r="C721" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="722" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>720</v>
       </c>
@@ -9802,7 +9832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
         <v>721</v>
       </c>
@@ -9810,7 +9840,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>722</v>
       </c>
@@ -9818,7 +9848,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
         <v>723</v>
       </c>
@@ -9826,7 +9856,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
         <v>724</v>
       </c>
@@ -9834,7 +9864,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
         <v>725</v>
       </c>
@@ -9842,7 +9872,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
         <v>726</v>
       </c>
@@ -9850,7 +9880,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
         <v>727</v>
       </c>
@@ -9858,7 +9888,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
         <v>728</v>
       </c>
@@ -9866,7 +9896,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
         <v>729</v>
       </c>
@@ -9874,7 +9904,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
         <v>730</v>
       </c>
@@ -9882,7 +9912,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
         <v>731</v>
       </c>
@@ -9890,7 +9920,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
         <v>732</v>
       </c>
@@ -9898,7 +9928,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
         <v>733</v>
       </c>
@@ -9906,7 +9936,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>734</v>
       </c>
@@ -9914,7 +9944,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>735</v>
       </c>
@@ -9922,7 +9952,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
         <v>736</v>
       </c>
@@ -9930,7 +9960,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
         <v>737</v>
       </c>
@@ -9938,7 +9968,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>738</v>
       </c>
@@ -9946,18 +9976,15 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B741" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="C741" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="742" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="742" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>740</v>
       </c>
@@ -9965,7 +9992,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
         <v>741</v>
       </c>
@@ -9973,7 +10000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>742</v>
       </c>
@@ -9981,18 +10008,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B745" s="1">
         <v>16</v>
       </c>
-      <c r="C745" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="746" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="746" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>744</v>
       </c>
@@ -10000,7 +10024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
         <v>745</v>
       </c>
@@ -10008,7 +10032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
         <v>746</v>
       </c>
@@ -10016,7 +10040,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
         <v>747</v>
       </c>
@@ -10024,7 +10048,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>748</v>
       </c>
@@ -10032,7 +10056,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
         <v>749</v>
       </c>
@@ -10040,7 +10064,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
         <v>750</v>
       </c>
@@ -10176,7 +10200,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>767</v>
       </c>
@@ -10184,7 +10208,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>768</v>
       </c>
@@ -10192,7 +10216,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
         <v>769</v>
       </c>
@@ -10200,7 +10224,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>770</v>
       </c>
@@ -10208,18 +10232,15 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
         <v>771</v>
       </c>
       <c r="B773" s="1">
         <v>15.2</v>
       </c>
-      <c r="C773" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="774" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="774" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>772</v>
       </c>
@@ -10227,7 +10248,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="775" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
         <v>773</v>
       </c>
@@ -10235,7 +10256,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="776" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>774</v>
       </c>
@@ -10243,7 +10264,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
         <v>775</v>
       </c>
@@ -10251,7 +10272,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>776</v>
       </c>
@@ -10259,7 +10280,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="779" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
         <v>777</v>
       </c>
@@ -10267,7 +10288,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="780" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>778</v>
       </c>
@@ -10275,7 +10296,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="781" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
         <v>779</v>
       </c>
@@ -10283,7 +10304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>780</v>
       </c>
@@ -10291,7 +10312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>781</v>
       </c>
@@ -10299,7 +10320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>782</v>
       </c>
@@ -10307,7 +10328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
         <v>783</v>
       </c>
@@ -10315,7 +10336,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
         <v>784</v>
       </c>
@@ -10323,7 +10344,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
         <v>785</v>
       </c>
@@ -10331,7 +10352,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
         <v>786</v>
       </c>
@@ -10339,7 +10360,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
         <v>787</v>
       </c>
@@ -10347,7 +10368,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
         <v>788</v>
       </c>
@@ -10355,18 +10376,15 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
         <v>789</v>
       </c>
       <c r="B791" s="1">
         <v>14.8</v>
       </c>
-      <c r="C791" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="792" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="792" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
         <v>790</v>
       </c>
@@ -10374,7 +10392,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
         <v>791</v>
       </c>
@@ -10382,7 +10400,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
         <v>792</v>
       </c>
@@ -10390,7 +10408,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
         <v>793</v>
       </c>
@@ -10398,7 +10416,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
         <v>794</v>
       </c>
@@ -10406,7 +10424,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
         <v>795</v>
       </c>
@@ -10414,7 +10432,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>796</v>
       </c>
@@ -10422,7 +10440,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
         <v>797</v>
       </c>
@@ -10430,18 +10448,15 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
         <v>798</v>
       </c>
       <c r="B800" s="1">
         <v>14.6</v>
       </c>
-      <c r="C800" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="801" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="801" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
         <v>799</v>
       </c>
@@ -10449,7 +10464,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>800</v>
       </c>
@@ -10457,7 +10472,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
         <v>801</v>
       </c>
@@ -10465,7 +10480,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
         <v>802</v>
       </c>
@@ -10473,7 +10488,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
         <v>803</v>
       </c>
@@ -10481,7 +10496,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>804</v>
       </c>
@@ -10489,7 +10504,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
         <v>805</v>
       </c>
@@ -10497,7 +10512,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
         <v>806</v>
       </c>
@@ -10505,7 +10520,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
         <v>807</v>
       </c>
@@ -10513,7 +10528,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>808</v>
       </c>
@@ -10521,7 +10536,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
         <v>809</v>
       </c>
@@ -10529,7 +10544,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
         <v>810</v>
       </c>
@@ -10537,18 +10552,15 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B813" s="1">
         <v>14.2</v>
       </c>
-      <c r="C813" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="814" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="814" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
         <v>812</v>
       </c>
@@ -10556,7 +10568,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
         <v>813</v>
       </c>
@@ -10564,7 +10576,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
         <v>814</v>
       </c>
@@ -10572,7 +10584,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>815</v>
       </c>
@@ -10580,7 +10592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>816</v>
       </c>
@@ -10588,7 +10600,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
         <v>817</v>
       </c>
@@ -10596,7 +10608,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>818</v>
       </c>
@@ -10604,7 +10616,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>819</v>
       </c>
@@ -10612,7 +10624,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>820</v>
       </c>
@@ -10620,7 +10632,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>821</v>
       </c>
@@ -10628,7 +10640,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>822</v>
       </c>
@@ -10636,7 +10648,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
         <v>823</v>
       </c>
@@ -10644,18 +10656,15 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>824</v>
       </c>
       <c r="B826" s="1">
         <v>13.5</v>
       </c>
-      <c r="C826" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="827" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="827" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>825</v>
       </c>
@@ -10663,7 +10672,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>826</v>
       </c>
@@ -10671,7 +10680,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>827</v>
       </c>
@@ -10679,18 +10688,15 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>828</v>
       </c>
       <c r="B830" s="1">
         <v>13.3</v>
       </c>
-      <c r="C830" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="831" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="831" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>829</v>
       </c>
@@ -10698,7 +10704,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>830</v>
       </c>
@@ -10706,7 +10712,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="833" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
         <v>831</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="834" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>832</v>
       </c>
@@ -10722,7 +10728,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="835" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
         <v>833</v>
       </c>
@@ -10730,7 +10736,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="836" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>834</v>
       </c>
@@ -10738,7 +10744,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="837" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>835</v>
       </c>
@@ -10746,7 +10752,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="838" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
         <v>836</v>
       </c>
@@ -10754,7 +10760,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="839" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
         <v>837</v>
       </c>
@@ -10762,18 +10768,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="840" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B840" s="1">
         <v>13</v>
       </c>
-      <c r="C840" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="841" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="841" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
         <v>839</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="842" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
         <v>840</v>
       </c>
@@ -10789,7 +10792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="843" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
         <v>841</v>
       </c>
@@ -10797,7 +10800,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
         <v>842</v>
       </c>
@@ -10805,18 +10808,15 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="845" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
         <v>843</v>
       </c>
       <c r="B845" s="1">
         <v>12.9</v>
       </c>
-      <c r="C845" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="846" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>844</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>845</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="848" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
         <v>846</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="849" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
         <v>847</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="850" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
         <v>848</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="851" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
         <v>849</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="852" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
         <v>850</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
         <v>851</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
         <v>852</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="855" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
         <v>853</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="856" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
         <v>854</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
         <v>855</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="858" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
         <v>856</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="859" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
         <v>857</v>
       </c>
@@ -10928,18 +10928,15 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
         <v>858</v>
       </c>
       <c r="B860" s="1">
         <v>12.2</v>
       </c>
-      <c r="C860" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="861" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="861" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
         <v>859</v>
       </c>
@@ -10947,7 +10944,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
         <v>860</v>
       </c>
@@ -10955,7 +10952,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="863" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
         <v>861</v>
       </c>
@@ -10963,7 +10960,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
         <v>862</v>
       </c>
@@ -11099,7 +11096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
         <v>879</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
         <v>880</v>
       </c>
@@ -11115,18 +11112,15 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
         <v>881</v>
       </c>
       <c r="B883" s="1">
         <v>10.9</v>
       </c>
-      <c r="C883" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="884" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
         <v>882</v>
       </c>
@@ -11134,7 +11128,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
         <v>883</v>
       </c>
@@ -11142,18 +11136,15 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
         <v>884</v>
       </c>
       <c r="B886" s="1">
         <v>10.6</v>
       </c>
-      <c r="C886" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="887" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="887" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
         <v>885</v>
       </c>
@@ -11161,7 +11152,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
         <v>886</v>
       </c>
@@ -11169,7 +11160,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="889" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
         <v>887</v>
       </c>
@@ -11177,7 +11168,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
         <v>888</v>
       </c>
@@ -11185,7 +11176,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
         <v>889</v>
       </c>
@@ -11193,7 +11184,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
         <v>890</v>
       </c>
@@ -11201,7 +11192,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
         <v>891</v>
       </c>
@@ -11209,7 +11200,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
         <v>892</v>
       </c>
@@ -11217,7 +11208,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
         <v>893</v>
       </c>
@@ -11225,7 +11216,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
         <v>894</v>
       </c>
@@ -11233,7 +11224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
         <v>895</v>
       </c>
@@ -11241,7 +11232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
         <v>896</v>
       </c>
@@ -11249,7 +11240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A899" s="1" t="s">
         <v>897</v>
       </c>
@@ -11257,7 +11248,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A900" s="1" t="s">
         <v>898</v>
       </c>
@@ -11265,7 +11256,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A901" s="1" t="s">
         <v>899</v>
       </c>
@@ -11273,18 +11264,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A902" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B902" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C902" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="903" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="903" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
         <v>901</v>
       </c>
@@ -11292,7 +11280,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A904" s="1" t="s">
         <v>902</v>
       </c>
@@ -11300,7 +11288,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A905" s="1" t="s">
         <v>903</v>
       </c>
@@ -11308,7 +11296,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A906" s="1" t="s">
         <v>904</v>
       </c>
@@ -11316,7 +11304,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A907" s="1" t="s">
         <v>905</v>
       </c>
@@ -11324,7 +11312,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
         <v>906</v>
       </c>
@@ -11332,7 +11320,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A909" s="1" t="s">
         <v>907</v>
       </c>
@@ -11340,7 +11328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A910" s="1" t="s">
         <v>908</v>
       </c>
@@ -11348,7 +11336,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A911" s="1" t="s">
         <v>909</v>
       </c>
@@ -11356,7 +11344,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
         <v>910</v>
       </c>
@@ -11364,18 +11352,15 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A913" s="1" t="s">
         <v>911</v>
       </c>
       <c r="B913" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C913" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="914" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="914" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A914" s="1" t="s">
         <v>912</v>
       </c>
@@ -11383,7 +11368,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A915" s="1" t="s">
         <v>913</v>
       </c>
@@ -11391,7 +11376,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A916" s="1" t="s">
         <v>914</v>
       </c>
@@ -11399,7 +11384,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A917" s="1" t="s">
         <v>915</v>
       </c>
@@ -11407,7 +11392,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A918" s="1" t="s">
         <v>916</v>
       </c>
@@ -11415,7 +11400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A919" s="1" t="s">
         <v>917</v>
       </c>
@@ -11423,7 +11408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A920" s="1" t="s">
         <v>918</v>
       </c>
@@ -11431,7 +11416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A921" s="1" t="s">
         <v>919</v>
       </c>
@@ -11439,7 +11424,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="922" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A922" s="1" t="s">
         <v>920</v>
       </c>
@@ -11447,7 +11432,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A923" s="1" t="s">
         <v>921</v>
       </c>
@@ -11455,7 +11440,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A924" s="1" t="s">
         <v>922</v>
       </c>
@@ -11463,7 +11448,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A925" s="1" t="s">
         <v>923</v>
       </c>
@@ -11471,7 +11456,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
         <v>924</v>
       </c>
@@ -11479,7 +11464,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A927" s="1" t="s">
         <v>925</v>
       </c>
@@ -11487,7 +11472,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A928" s="1" t="s">
         <v>926</v>
       </c>
@@ -11623,7 +11608,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A945" s="1" t="s">
         <v>943</v>
       </c>
@@ -11631,7 +11616,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A946" s="1" t="s">
         <v>944</v>
       </c>
@@ -11639,7 +11624,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A947" s="1" t="s">
         <v>945</v>
       </c>
@@ -11647,7 +11632,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A948" s="1" t="s">
         <v>946</v>
       </c>
@@ -11655,7 +11640,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A949" s="1" t="s">
         <v>947</v>
       </c>
@@ -11663,18 +11648,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A950" s="1" t="s">
         <v>948</v>
       </c>
       <c r="B950" s="1">
         <v>3.3</v>
       </c>
-      <c r="C950" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="951" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="951" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A951" s="1" t="s">
         <v>949</v>
       </c>
@@ -11682,7 +11664,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A952" s="1" t="s">
         <v>950</v>
       </c>
@@ -11690,7 +11672,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A953" s="1" t="s">
         <v>951</v>
       </c>
@@ -11698,18 +11680,15 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A954" s="1" t="s">
         <v>952</v>
       </c>
       <c r="B954" s="1">
         <v>2.7</v>
       </c>
-      <c r="C954" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="955" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="955" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
         <v>953</v>
       </c>
@@ -11717,7 +11696,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
         <v>954</v>
       </c>
@@ -11725,7 +11704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A957" s="1" t="s">
         <v>955</v>
       </c>

--- a/Cleaned Data/Job data.xlsx
+++ b/Cleaned Data/Job data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2jine\Documents\GitHub\covid-data-challenge\Cleaned Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22A66E2-1839-5F4F-B099-9269CA5E4230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F668FB-E121-41FF-8096-28E97CB5B670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="460" windowWidth="25800" windowHeight="19300" xr2:uid="{30FC58CF-0FB9-E64F-8728-B2480F32F19D}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{30FC58CF-0FB9-E64F-8728-B2480F32F19D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="1020">
   <si>
     <t>Dental Hygienists</t>
   </si>
@@ -3025,6 +3025,96 @@
   </si>
   <si>
     <t>All Others (average)</t>
+  </si>
+  <si>
+    <t>dental</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>therapist</t>
+  </si>
+  <si>
+    <t>surgeon</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>jail</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>funeral</t>
+  </si>
+  <si>
+    <t>technologist</t>
+  </si>
+  <si>
+    <t>acupuncturist</t>
+  </si>
+  <si>
+    <t>med_technician</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>chiropractor</t>
+  </si>
+  <si>
+    <t>vet_worker</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>school_worker</t>
+  </si>
+  <si>
+    <t>cosmetician</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
+  <si>
+    <t>health_worker</t>
+  </si>
+  <si>
+    <t>merged with police</t>
+  </si>
+  <si>
+    <t>too low, removed</t>
+  </si>
+  <si>
+    <t>humanService</t>
+  </si>
+  <si>
+    <t>merged with entertainment / retail</t>
+  </si>
+  <si>
+    <t>merged with jail</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>merged into food</t>
+  </si>
+  <si>
+    <t>more general category of retail/ customer service</t>
   </si>
 </sst>
 </file>
@@ -3394,22 +3484,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683020E6-DEEE-EC43-A39F-9AC342BD908D}">
-  <dimension ref="A1:E957"/>
+  <dimension ref="A1:G957"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>956</v>
       </c>
@@ -3426,7 +3516,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3443,8 +3533,11 @@
         <f>SUM(B2,B5,B8)/3</f>
         <v>94.766666666666652</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3461,8 +3554,11 @@
         <f>SUM(B6,B19,B34:B37,B28,B45,B95,B109:B110)/11</f>
         <v>73.390909090909091</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3479,8 +3575,11 @@
         <f>SUM(B7,B40,B38)/3</f>
         <v>82.100000000000009</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3497,8 +3596,11 @@
         <f t="array" ref="E5">SUM(B3:B4,B9:B11/B13:B15,B17:B18,B23,B29:B30,B32,B39,B42,B51,B56,B58,B61:B62,B64,B68,B120)/24</f>
         <v>57.240455352697815</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3515,8 +3617,11 @@
         <f>SUM(B12,B16,B21:B22,B25,B49,B53,B75,B80,B105)/10</f>
         <v>74.149999999999991</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3533,8 +3638,11 @@
         <f>SUM(B26:B27,B46,B48,B63)/5</f>
         <v>75.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3550,8 +3658,11 @@
       <c r="E8" s="1">
         <v>79.900000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3568,8 +3679,11 @@
         <f>SUM(B20,B33,B59,B73,B101,B127)/6</f>
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3586,8 +3700,11 @@
         <f>SUM(B41,B76,B115,B147)/4</f>
         <v>58.949999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3603,8 +3720,11 @@
       <c r="E11" s="1">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3621,8 +3741,11 @@
         <f>SUM(B44,B57,B70,B129)/4</f>
         <v>65.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3638,8 +3761,11 @@
       <c r="E13" s="1">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3656,8 +3782,11 @@
         <f>SUM(B66:B67,B71,B91,B98:B100,B102:B103,B107)/10</f>
         <v>58.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3674,8 +3803,11 @@
         <f>SUM(B60,B65,B74,B94,B131,B134,B141)/7</f>
         <v>57.428571428571431</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3692,8 +3824,11 @@
         <f>SUM(B50,B52,B54,B69,B72,B79,B82:B83,B92:B93,B112,B123,B130,B136,B87)/15</f>
         <v>59.993333333333339</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3710,8 +3845,11 @@
         <f>SUM(B77,B84)/2</f>
         <v>60.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3728,8 +3866,11 @@
         <f>SUM(B78,B125:B126,B119,B111)/5</f>
         <v>53.059999999999988</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3745,8 +3886,11 @@
       <c r="E19">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3763,8 +3907,11 @@
         <f>SUM(B88,B113:B114,B116,B139,B143)/6</f>
         <v>51.54999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3781,8 +3928,11 @@
         <f>SUM(B128,B135,B89:B90,B85)/5</f>
         <v>55.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3799,8 +3949,11 @@
         <f>SUM(B96:B97,B104,B108,B138)/5</f>
         <v>53.56</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3816,8 +3969,11 @@
       <c r="E23" s="1">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F23" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3834,8 +3990,11 @@
         <f>SUM(B124,B117)/2</f>
         <v>50.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3852,8 +4011,11 @@
         <f>SUM(B133,B142, B118)/3</f>
         <v>49.366666666666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3870,8 +4032,11 @@
         <f>SUM(B122,C226,C543)/3</f>
         <v>16.900000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3887,8 +4052,11 @@
       <c r="E27" s="1">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3904,8 +4072,14 @@
       <c r="E28">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3921,8 +4095,11 @@
       <c r="E29" s="1">
         <v>47.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3938,8 +4115,11 @@
       <c r="E30">
         <v>23.431000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3950,7 +4130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3961,7 +4141,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -3972,7 +4152,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -3983,7 +4163,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3994,7 +4174,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4005,7 +4185,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -4016,7 +4196,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -4027,7 +4207,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -4038,7 +4218,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -4049,7 +4229,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -4060,7 +4240,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -4071,7 +4251,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -4082,7 +4262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -4093,7 +4273,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -4104,7 +4284,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -4115,7 +4295,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -4126,7 +4306,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -4137,7 +4317,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -4148,7 +4328,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,7 +4339,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,7 +4350,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -4181,7 +4361,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -4192,7 +4372,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -4203,7 +4383,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -4214,7 +4394,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -4225,7 +4405,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -4236,7 +4416,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -4247,7 +4427,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -4258,7 +4438,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -4269,7 +4449,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -4280,7 +4460,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -4291,7 +4471,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -4302,7 +4482,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -4313,7 +4493,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -4324,7 +4504,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -4335,7 +4515,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -4346,7 +4526,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,7 +4537,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -4368,7 +4548,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -4379,7 +4559,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -4390,7 +4570,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -4401,7 +4581,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -4412,7 +4592,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -4423,7 +4603,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -4434,7 +4614,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -4445,7 +4625,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -4456,7 +4636,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -4467,7 +4647,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -4478,7 +4658,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -4489,7 +4669,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -4500,7 +4680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -4511,7 +4691,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -4522,7 +4702,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -4533,7 +4713,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -4544,7 +4724,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -4555,7 +4735,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -4566,7 +4746,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -4577,7 +4757,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -4588,7 +4768,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -4599,7 +4779,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -4610,7 +4790,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -4621,7 +4801,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -4632,7 +4812,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -4643,7 +4823,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -4654,7 +4834,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -4665,7 +4845,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -4676,7 +4856,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -4687,7 +4867,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -4698,7 +4878,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -4709,7 +4889,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -4720,7 +4900,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -4731,7 +4911,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -4742,7 +4922,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -4753,7 +4933,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -4764,7 +4944,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -4775,7 +4955,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -4786,7 +4966,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -4797,7 +4977,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -4808,7 +4988,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -4819,7 +4999,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -4830,7 +5010,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -4841,7 +5021,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -4852,7 +5032,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -4863,7 +5043,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -4874,7 +5054,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -4885,7 +5065,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -4896,7 +5076,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -4907,7 +5087,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -4918,7 +5098,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -4929,7 +5109,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -4940,7 +5120,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -4951,7 +5131,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -4962,7 +5142,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -4973,7 +5153,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -4984,7 +5164,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -4995,7 +5175,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -5006,7 +5186,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -5017,7 +5197,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -5028,7 +5208,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -5039,7 +5219,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -5050,7 +5230,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -5061,7 +5241,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -5072,7 +5252,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -5083,7 +5263,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -5094,7 +5274,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -5105,7 +5285,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -5116,7 +5296,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -5127,7 +5307,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -5138,7 +5318,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -5149,7 +5329,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -5160,7 +5340,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -5171,7 +5351,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -5182,7 +5362,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -5193,7 +5373,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -5201,7 +5381,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -5212,7 +5392,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -5223,7 +5403,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -5231,7 +5411,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -5239,7 +5419,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -5247,7 +5427,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -5255,7 +5435,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -5263,7 +5443,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -5271,7 +5451,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -5279,7 +5459,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -5287,7 +5467,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -5295,7 +5475,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -5303,7 +5483,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -5311,7 +5491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -5319,7 +5499,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -5327,7 +5507,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -5335,7 +5515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -5343,7 +5523,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -5351,7 +5531,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -5359,7 +5539,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -5367,7 +5547,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -5375,7 +5555,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -5383,7 +5563,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -5391,7 +5571,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -5399,7 +5579,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -5407,7 +5587,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -5416,7 +5596,7 @@
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -5424,7 +5604,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -5432,7 +5612,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -5440,7 +5620,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -5448,7 +5628,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -5456,7 +5636,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -5464,7 +5644,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
@@ -5472,7 +5652,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -5480,7 +5660,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -5488,7 +5668,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -5496,7 +5676,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -5504,7 +5684,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -5512,7 +5692,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -5520,7 +5700,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -5528,7 +5708,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -5536,7 +5716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -5544,7 +5724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -5552,7 +5732,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -5560,7 +5740,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -5568,7 +5748,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -5576,7 +5756,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -5584,7 +5764,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -5592,7 +5772,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -5600,7 +5780,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -5608,7 +5788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -5616,7 +5796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -5624,7 +5804,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -5632,7 +5812,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -5640,7 +5820,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -5648,7 +5828,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -5656,7 +5836,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -5664,7 +5844,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -5672,7 +5852,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -5680,7 +5860,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -5688,7 +5868,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -5696,7 +5876,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -5704,7 +5884,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -5712,7 +5892,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
@@ -5720,7 +5900,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
@@ -5728,7 +5908,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
@@ -5736,7 +5916,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
@@ -5744,7 +5924,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
@@ -5752,7 +5932,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
@@ -5760,7 +5940,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -5768,7 +5948,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -5776,7 +5956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
@@ -5784,7 +5964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
@@ -5792,7 +5972,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
@@ -5800,7 +5980,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
@@ -5808,7 +5988,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
@@ -5816,7 +5996,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -5824,7 +6004,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
@@ -5832,7 +6012,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
@@ -5840,7 +6020,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -5848,7 +6028,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
@@ -5859,7 +6039,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -5867,7 +6047,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -5875,7 +6055,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -5883,7 +6063,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -5891,7 +6071,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -5899,7 +6079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
@@ -5907,7 +6087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -5915,7 +6095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -5923,7 +6103,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -5931,7 +6111,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -5939,7 +6119,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -5947,7 +6127,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -5955,7 +6135,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -5963,7 +6143,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -5971,7 +6151,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
@@ -5979,7 +6159,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -5987,7 +6167,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
@@ -5995,7 +6175,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
@@ -6003,7 +6183,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
@@ -6011,7 +6191,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
@@ -6019,7 +6199,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
@@ -6027,7 +6207,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
@@ -6035,7 +6215,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -6043,7 +6223,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -6051,7 +6231,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -6059,7 +6239,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -6067,7 +6247,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -6075,7 +6255,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
@@ -6083,7 +6263,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
@@ -6091,7 +6271,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
@@ -6099,7 +6279,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
@@ -6107,7 +6287,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
@@ -6115,7 +6295,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
@@ -6123,7 +6303,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
@@ -6131,7 +6311,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
@@ -6139,7 +6319,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
@@ -6147,7 +6327,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
@@ -6155,7 +6335,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
@@ -6163,7 +6343,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
@@ -6171,7 +6351,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
@@ -6179,7 +6359,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
@@ -6188,7 +6368,7 @@
       </c>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
@@ -6196,7 +6376,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -6204,7 +6384,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
@@ -6212,7 +6392,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
@@ -6220,7 +6400,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
@@ -6228,7 +6408,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
@@ -6236,7 +6416,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
@@ -6244,7 +6424,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
@@ -6252,7 +6432,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
@@ -6260,7 +6440,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
@@ -6268,7 +6448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
@@ -6276,7 +6456,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
@@ -6284,7 +6464,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
@@ -6292,7 +6472,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
@@ -6300,7 +6480,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
@@ -6308,7 +6488,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
@@ -6316,7 +6496,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
@@ -6324,7 +6504,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
@@ -6332,7 +6512,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
@@ -6340,7 +6520,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
@@ -6348,7 +6528,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
@@ -6356,7 +6536,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
@@ -6364,7 +6544,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
@@ -6373,7 +6553,7 @@
       </c>
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
@@ -6381,7 +6561,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
@@ -6389,7 +6569,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
@@ -6397,7 +6577,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
@@ -6405,7 +6585,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
@@ -6413,7 +6593,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
@@ -6421,7 +6601,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
@@ -6429,7 +6609,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
@@ -6437,7 +6617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
@@ -6445,7 +6625,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
@@ -6453,7 +6633,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
@@ -6461,7 +6641,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
@@ -6469,7 +6649,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
@@ -6477,7 +6657,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
@@ -6485,7 +6665,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
@@ -6493,7 +6673,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>304</v>
       </c>
@@ -6501,7 +6681,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
@@ -6509,7 +6689,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
@@ -6517,7 +6697,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
@@ -6525,7 +6705,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
@@ -6533,7 +6713,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
@@ -6541,7 +6721,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
@@ -6549,7 +6729,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
@@ -6557,7 +6737,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
@@ -6565,7 +6745,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
@@ -6573,7 +6753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
@@ -6581,7 +6761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
@@ -6589,7 +6769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>316</v>
       </c>
@@ -6597,7 +6777,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>317</v>
       </c>
@@ -6605,7 +6785,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>318</v>
       </c>
@@ -6613,7 +6793,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
@@ -6621,7 +6801,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -6629,7 +6809,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
@@ -6637,7 +6817,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -6645,7 +6825,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
@@ -6653,7 +6833,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -6661,7 +6841,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
@@ -6669,7 +6849,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -6677,7 +6857,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
@@ -6685,7 +6865,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
@@ -6693,7 +6873,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
@@ -6701,7 +6881,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
@@ -6709,7 +6889,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
@@ -6717,7 +6897,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
@@ -6725,7 +6905,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
@@ -6733,7 +6913,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
@@ -6741,7 +6921,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -6749,7 +6929,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -6757,7 +6937,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -6765,7 +6945,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -6773,7 +6953,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
@@ -6781,7 +6961,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
@@ -6789,7 +6969,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -6797,7 +6977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
@@ -6805,7 +6985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -6813,7 +6993,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
@@ -6821,7 +7001,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
@@ -6829,7 +7009,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
@@ -6837,7 +7017,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
@@ -6845,7 +7025,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
@@ -6853,7 +7033,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
@@ -6861,7 +7041,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
@@ -6869,7 +7049,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -6877,7 +7057,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
@@ -6885,7 +7065,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
@@ -6893,7 +7073,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
@@ -6901,7 +7081,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
@@ -6909,7 +7089,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
@@ -6917,7 +7097,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
@@ -6925,7 +7105,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
@@ -6933,7 +7113,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
@@ -6941,7 +7121,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
@@ -6949,7 +7129,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -6957,7 +7137,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
@@ -6965,7 +7145,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
@@ -6973,7 +7153,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
@@ -6981,7 +7161,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
@@ -6989,7 +7169,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
@@ -6997,7 +7177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
@@ -7005,7 +7185,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
@@ -7013,7 +7193,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
@@ -7021,7 +7201,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
@@ -7029,7 +7209,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
@@ -7037,7 +7217,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
@@ -7045,7 +7225,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
@@ -7053,7 +7233,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
@@ -7061,7 +7241,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
@@ -7069,7 +7249,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
@@ -7077,7 +7257,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
@@ -7085,7 +7265,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
@@ -7093,7 +7273,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
@@ -7101,7 +7281,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
@@ -7109,7 +7289,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
@@ -7117,7 +7297,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
@@ -7125,7 +7305,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
@@ -7133,7 +7313,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
@@ -7141,7 +7321,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
@@ -7149,7 +7329,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
@@ -7157,7 +7337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
@@ -7165,7 +7345,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
@@ -7173,7 +7353,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
@@ -7181,7 +7361,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
@@ -7189,7 +7369,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
@@ -7197,7 +7377,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
@@ -7205,7 +7385,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
@@ -7213,7 +7393,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -7221,7 +7401,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
@@ -7229,7 +7409,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
@@ -7237,7 +7417,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
@@ -7245,7 +7425,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
@@ -7253,7 +7433,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
@@ -7261,7 +7441,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>400</v>
       </c>
@@ -7269,7 +7449,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
@@ -7277,7 +7457,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>402</v>
       </c>
@@ -7285,7 +7465,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>403</v>
       </c>
@@ -7293,7 +7473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
@@ -7301,7 +7481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>405</v>
       </c>
@@ -7309,7 +7489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>406</v>
       </c>
@@ -7317,7 +7497,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>407</v>
       </c>
@@ -7325,7 +7505,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>408</v>
       </c>
@@ -7333,7 +7513,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
@@ -7341,7 +7521,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>410</v>
       </c>
@@ -7349,7 +7529,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>411</v>
       </c>
@@ -7357,7 +7537,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>412</v>
       </c>
@@ -7365,7 +7545,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>413</v>
       </c>
@@ -7373,7 +7553,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>414</v>
       </c>
@@ -7381,7 +7561,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>415</v>
       </c>
@@ -7389,7 +7569,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
@@ -7397,7 +7577,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>417</v>
       </c>
@@ -7405,7 +7585,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>418</v>
       </c>
@@ -7413,7 +7593,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>419</v>
       </c>
@@ -7421,7 +7601,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>420</v>
       </c>
@@ -7429,7 +7609,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
@@ -7437,7 +7617,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>422</v>
       </c>
@@ -7445,7 +7625,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
@@ -7453,7 +7633,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -7461,7 +7641,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>425</v>
       </c>
@@ -7469,7 +7649,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>426</v>
       </c>
@@ -7477,7 +7657,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>427</v>
       </c>
@@ -7485,7 +7665,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>428</v>
       </c>
@@ -7493,7 +7673,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>429</v>
       </c>
@@ -7501,7 +7681,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>430</v>
       </c>
@@ -7509,7 +7689,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>431</v>
       </c>
@@ -7517,7 +7697,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>432</v>
       </c>
@@ -7525,7 +7705,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>433</v>
       </c>
@@ -7533,7 +7713,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>434</v>
       </c>
@@ -7541,7 +7721,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>435</v>
       </c>
@@ -7549,7 +7729,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>436</v>
       </c>
@@ -7557,7 +7737,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>437</v>
       </c>
@@ -7565,7 +7745,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>438</v>
       </c>
@@ -7573,7 +7753,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>439</v>
       </c>
@@ -7581,7 +7761,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>440</v>
       </c>
@@ -7589,7 +7769,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>441</v>
       </c>
@@ -7597,7 +7777,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>442</v>
       </c>
@@ -7605,7 +7785,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>443</v>
       </c>
@@ -7613,7 +7793,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>444</v>
       </c>
@@ -7621,7 +7801,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>445</v>
       </c>
@@ -7629,7 +7809,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>446</v>
       </c>
@@ -7637,7 +7817,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>447</v>
       </c>
@@ -7645,7 +7825,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>448</v>
       </c>
@@ -7653,7 +7833,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>449</v>
       </c>
@@ -7661,7 +7841,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>450</v>
       </c>
@@ -7669,7 +7849,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>451</v>
       </c>
@@ -7677,7 +7857,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>452</v>
       </c>
@@ -7685,7 +7865,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>453</v>
       </c>
@@ -7693,7 +7873,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>454</v>
       </c>
@@ -7701,7 +7881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>455</v>
       </c>
@@ -7709,7 +7889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>456</v>
       </c>
@@ -7717,7 +7897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>457</v>
       </c>
@@ -7725,7 +7905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>458</v>
       </c>
@@ -7733,7 +7913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>459</v>
       </c>
@@ -7741,7 +7921,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>460</v>
       </c>
@@ -7749,7 +7929,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>461</v>
       </c>
@@ -7757,7 +7937,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>462</v>
       </c>
@@ -7765,7 +7945,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>463</v>
       </c>
@@ -7773,7 +7953,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>464</v>
       </c>
@@ -7781,7 +7961,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>465</v>
       </c>
@@ -7789,7 +7969,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>466</v>
       </c>
@@ -7797,7 +7977,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>467</v>
       </c>
@@ -7805,7 +7985,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>468</v>
       </c>
@@ -7813,7 +7993,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>469</v>
       </c>
@@ -7821,7 +8001,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>470</v>
       </c>
@@ -7829,7 +8009,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>471</v>
       </c>
@@ -7837,7 +8017,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>472</v>
       </c>
@@ -7845,7 +8025,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>473</v>
       </c>
@@ -7853,7 +8033,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>474</v>
       </c>
@@ -7861,7 +8041,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>475</v>
       </c>
@@ -7869,7 +8049,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>476</v>
       </c>
@@ -7877,7 +8057,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>477</v>
       </c>
@@ -7885,7 +8065,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>478</v>
       </c>
@@ -7893,7 +8073,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>479</v>
       </c>
@@ -7901,7 +8081,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>480</v>
       </c>
@@ -7909,7 +8089,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>481</v>
       </c>
@@ -7917,7 +8097,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>482</v>
       </c>
@@ -7925,7 +8105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>483</v>
       </c>
@@ -7933,7 +8113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>484</v>
       </c>
@@ -7941,7 +8121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>485</v>
       </c>
@@ -7949,7 +8129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>486</v>
       </c>
@@ -7957,7 +8137,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>487</v>
       </c>
@@ -7965,7 +8145,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>488</v>
       </c>
@@ -7973,7 +8153,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>489</v>
       </c>
@@ -7981,7 +8161,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>490</v>
       </c>
@@ -7989,7 +8169,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>491</v>
       </c>
@@ -7997,7 +8177,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>492</v>
       </c>
@@ -8005,7 +8185,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>493</v>
       </c>
@@ -8013,7 +8193,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>494</v>
       </c>
@@ -8021,7 +8201,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>495</v>
       </c>
@@ -8029,7 +8209,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>496</v>
       </c>
@@ -8037,7 +8217,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>497</v>
       </c>
@@ -8045,7 +8225,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>498</v>
       </c>
@@ -8053,7 +8233,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>499</v>
       </c>
@@ -8061,7 +8241,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>500</v>
       </c>
@@ -8069,7 +8249,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>501</v>
       </c>
@@ -8077,7 +8257,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>502</v>
       </c>
@@ -8085,7 +8265,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>503</v>
       </c>
@@ -8093,7 +8273,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>504</v>
       </c>
@@ -8101,7 +8281,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>505</v>
       </c>
@@ -8109,7 +8289,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>506</v>
       </c>
@@ -8117,7 +8297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>507</v>
       </c>
@@ -8125,7 +8305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>508</v>
       </c>
@@ -8133,7 +8313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>509</v>
       </c>
@@ -8141,7 +8321,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>510</v>
       </c>
@@ -8149,7 +8329,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>511</v>
       </c>
@@ -8157,7 +8337,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>512</v>
       </c>
@@ -8165,7 +8345,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>513</v>
       </c>
@@ -8173,7 +8353,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>514</v>
       </c>
@@ -8181,7 +8361,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>515</v>
       </c>
@@ -8189,7 +8369,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>516</v>
       </c>
@@ -8197,7 +8377,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>517</v>
       </c>
@@ -8205,7 +8385,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>518</v>
       </c>
@@ -8213,7 +8393,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>519</v>
       </c>
@@ -8221,7 +8401,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>520</v>
       </c>
@@ -8229,7 +8409,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>521</v>
       </c>
@@ -8237,7 +8417,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>522</v>
       </c>
@@ -8245,7 +8425,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>523</v>
       </c>
@@ -8253,7 +8433,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>524</v>
       </c>
@@ -8261,7 +8441,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>525</v>
       </c>
@@ -8269,7 +8449,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>526</v>
       </c>
@@ -8277,7 +8457,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>527</v>
       </c>
@@ -8285,7 +8465,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>528</v>
       </c>
@@ -8293,7 +8473,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>529</v>
       </c>
@@ -8301,7 +8481,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>530</v>
       </c>
@@ -8309,7 +8489,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>531</v>
       </c>
@@ -8317,7 +8497,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>532</v>
       </c>
@@ -8325,7 +8505,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>533</v>
       </c>
@@ -8333,7 +8513,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>534</v>
       </c>
@@ -8341,7 +8521,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>535</v>
       </c>
@@ -8349,7 +8529,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>536</v>
       </c>
@@ -8357,7 +8537,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>537</v>
       </c>
@@ -8365,7 +8545,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>538</v>
       </c>
@@ -8373,7 +8553,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>539</v>
       </c>
@@ -8381,7 +8561,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>540</v>
       </c>
@@ -8389,7 +8569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>541</v>
       </c>
@@ -8400,7 +8580,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>542</v>
       </c>
@@ -8408,7 +8588,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>543</v>
       </c>
@@ -8416,7 +8596,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>544</v>
       </c>
@@ -8424,7 +8604,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>545</v>
       </c>
@@ -8432,7 +8612,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>546</v>
       </c>
@@ -8440,7 +8620,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>547</v>
       </c>
@@ -8448,7 +8628,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>548</v>
       </c>
@@ -8456,7 +8636,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>549</v>
       </c>
@@ -8464,7 +8644,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>550</v>
       </c>
@@ -8472,7 +8652,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>551</v>
       </c>
@@ -8480,7 +8660,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>552</v>
       </c>
@@ -8488,7 +8668,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>553</v>
       </c>
@@ -8496,7 +8676,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>554</v>
       </c>
@@ -8504,7 +8684,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>555</v>
       </c>
@@ -8512,7 +8692,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>556</v>
       </c>
@@ -8520,7 +8700,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>557</v>
       </c>
@@ -8528,7 +8708,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>558</v>
       </c>
@@ -8536,7 +8716,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>559</v>
       </c>
@@ -8544,7 +8724,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>560</v>
       </c>
@@ -8552,7 +8732,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>561</v>
       </c>
@@ -8560,7 +8740,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>562</v>
       </c>
@@ -8568,7 +8748,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>563</v>
       </c>
@@ -8576,7 +8756,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>564</v>
       </c>
@@ -8584,7 +8764,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>565</v>
       </c>
@@ -8592,7 +8772,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>566</v>
       </c>
@@ -8600,7 +8780,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>567</v>
       </c>
@@ -8608,7 +8788,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>568</v>
       </c>
@@ -8616,7 +8796,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>569</v>
       </c>
@@ -8624,7 +8804,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>570</v>
       </c>
@@ -8632,7 +8812,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>571</v>
       </c>
@@ -8640,7 +8820,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>572</v>
       </c>
@@ -8648,7 +8828,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>573</v>
       </c>
@@ -8656,7 +8836,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>574</v>
       </c>
@@ -8664,7 +8844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>575</v>
       </c>
@@ -8672,7 +8852,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>576</v>
       </c>
@@ -8680,7 +8860,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>577</v>
       </c>
@@ -8688,7 +8868,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>578</v>
       </c>
@@ -8696,7 +8876,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>579</v>
       </c>
@@ -8704,7 +8884,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>580</v>
       </c>
@@ -8712,7 +8892,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>581</v>
       </c>
@@ -8720,7 +8900,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>582</v>
       </c>
@@ -8728,7 +8908,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>583</v>
       </c>
@@ -8736,7 +8916,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>584</v>
       </c>
@@ -8744,7 +8924,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>585</v>
       </c>
@@ -8752,7 +8932,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>586</v>
       </c>
@@ -8760,7 +8940,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>587</v>
       </c>
@@ -8768,7 +8948,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>588</v>
       </c>
@@ -8776,7 +8956,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>589</v>
       </c>
@@ -8784,7 +8964,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>590</v>
       </c>
@@ -8792,7 +8972,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>591</v>
       </c>
@@ -8800,7 +8980,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>592</v>
       </c>
@@ -8808,7 +8988,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>593</v>
       </c>
@@ -8816,7 +8996,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>594</v>
       </c>
@@ -8824,7 +9004,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>595</v>
       </c>
@@ -8832,7 +9012,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>596</v>
       </c>
@@ -8840,7 +9020,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>597</v>
       </c>
@@ -8848,7 +9028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>598</v>
       </c>
@@ -8856,7 +9036,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>599</v>
       </c>
@@ -8864,7 +9044,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>600</v>
       </c>
@@ -8872,7 +9052,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>601</v>
       </c>
@@ -8880,7 +9060,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>602</v>
       </c>
@@ -8888,7 +9068,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>603</v>
       </c>
@@ -8896,7 +9076,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>604</v>
       </c>
@@ -8904,7 +9084,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>605</v>
       </c>
@@ -8912,7 +9092,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>606</v>
       </c>
@@ -8920,7 +9100,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>607</v>
       </c>
@@ -8928,7 +9108,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>608</v>
       </c>
@@ -8936,7 +9116,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>609</v>
       </c>
@@ -8944,7 +9124,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>610</v>
       </c>
@@ -8952,7 +9132,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>611</v>
       </c>
@@ -8960,7 +9140,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>612</v>
       </c>
@@ -8968,7 +9148,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>613</v>
       </c>
@@ -8976,7 +9156,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>614</v>
       </c>
@@ -8984,7 +9164,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>615</v>
       </c>
@@ -8992,7 +9172,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>616</v>
       </c>
@@ -9000,7 +9180,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>617</v>
       </c>
@@ -9008,7 +9188,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>618</v>
       </c>
@@ -9016,7 +9196,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>619</v>
       </c>
@@ -9024,7 +9204,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>620</v>
       </c>
@@ -9032,7 +9212,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>621</v>
       </c>
@@ -9040,7 +9220,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>622</v>
       </c>
@@ -9048,7 +9228,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>623</v>
       </c>
@@ -9056,7 +9236,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>624</v>
       </c>
@@ -9064,7 +9244,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>625</v>
       </c>
@@ -9072,7 +9252,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>626</v>
       </c>
@@ -9080,7 +9260,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>627</v>
       </c>
@@ -9088,7 +9268,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>628</v>
       </c>
@@ -9096,7 +9276,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>629</v>
       </c>
@@ -9104,7 +9284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>630</v>
       </c>
@@ -9112,7 +9292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>631</v>
       </c>
@@ -9120,7 +9300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>632</v>
       </c>
@@ -9128,7 +9308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>633</v>
       </c>
@@ -9136,7 +9316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>634</v>
       </c>
@@ -9144,7 +9324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>635</v>
       </c>
@@ -9152,7 +9332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>636</v>
       </c>
@@ -9160,7 +9340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>637</v>
       </c>
@@ -9168,7 +9348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>638</v>
       </c>
@@ -9176,7 +9356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>639</v>
       </c>
@@ -9184,7 +9364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>640</v>
       </c>
@@ -9192,7 +9372,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>641</v>
       </c>
@@ -9200,7 +9380,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>642</v>
       </c>
@@ -9208,7 +9388,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>643</v>
       </c>
@@ -9216,7 +9396,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>644</v>
       </c>
@@ -9224,7 +9404,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>645</v>
       </c>
@@ -9232,7 +9412,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>646</v>
       </c>
@@ -9240,7 +9420,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>647</v>
       </c>
@@ -9248,7 +9428,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>648</v>
       </c>
@@ -9256,7 +9436,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>649</v>
       </c>
@@ -9264,7 +9444,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>650</v>
       </c>
@@ -9272,7 +9452,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>651</v>
       </c>
@@ -9280,7 +9460,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>652</v>
       </c>
@@ -9288,7 +9468,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>653</v>
       </c>
@@ -9296,7 +9476,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>654</v>
       </c>
@@ -9304,7 +9484,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>655</v>
       </c>
@@ -9312,7 +9492,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>656</v>
       </c>
@@ -9320,7 +9500,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>657</v>
       </c>
@@ -9328,7 +9508,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>658</v>
       </c>
@@ -9336,7 +9516,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>659</v>
       </c>
@@ -9344,7 +9524,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>660</v>
       </c>
@@ -9352,7 +9532,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>661</v>
       </c>
@@ -9360,7 +9540,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>662</v>
       </c>
@@ -9368,7 +9548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>663</v>
       </c>
@@ -9376,7 +9556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>664</v>
       </c>
@@ -9384,7 +9564,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>665</v>
       </c>
@@ -9392,7 +9572,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>666</v>
       </c>
@@ -9400,7 +9580,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>667</v>
       </c>
@@ -9408,7 +9588,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>668</v>
       </c>
@@ -9416,7 +9596,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>669</v>
       </c>
@@ -9424,7 +9604,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>670</v>
       </c>
@@ -9432,7 +9612,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>671</v>
       </c>
@@ -9440,7 +9620,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>672</v>
       </c>
@@ -9448,7 +9628,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>673</v>
       </c>
@@ -9456,7 +9636,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>674</v>
       </c>
@@ -9464,7 +9644,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>675</v>
       </c>
@@ -9472,7 +9652,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>676</v>
       </c>
@@ -9480,7 +9660,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>677</v>
       </c>
@@ -9488,7 +9668,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>678</v>
       </c>
@@ -9496,7 +9676,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>679</v>
       </c>
@@ -9504,7 +9684,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>680</v>
       </c>
@@ -9512,7 +9692,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>681</v>
       </c>
@@ -9520,7 +9700,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>682</v>
       </c>
@@ -9528,7 +9708,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>683</v>
       </c>
@@ -9536,7 +9716,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>684</v>
       </c>
@@ -9544,7 +9724,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>685</v>
       </c>
@@ -9552,7 +9732,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>686</v>
       </c>
@@ -9560,7 +9740,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>687</v>
       </c>
@@ -9568,7 +9748,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>688</v>
       </c>
@@ -9576,7 +9756,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>689</v>
       </c>
@@ -9584,7 +9764,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>690</v>
       </c>
@@ -9592,7 +9772,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>691</v>
       </c>
@@ -9600,7 +9780,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>692</v>
       </c>
@@ -9608,7 +9788,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>693</v>
       </c>
@@ -9616,7 +9796,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>694</v>
       </c>
@@ -9624,7 +9804,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>695</v>
       </c>
@@ -9632,7 +9812,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>696</v>
       </c>
@@ -9640,7 +9820,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>697</v>
       </c>
@@ -9648,7 +9828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>698</v>
       </c>
@@ -9656,7 +9836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>699</v>
       </c>
@@ -9664,7 +9844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>700</v>
       </c>
@@ -9672,7 +9852,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>701</v>
       </c>
@@ -9680,7 +9860,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>702</v>
       </c>
@@ -9688,7 +9868,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>703</v>
       </c>
@@ -9696,7 +9876,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>704</v>
       </c>
@@ -9704,7 +9884,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>705</v>
       </c>
@@ -9712,7 +9892,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>706</v>
       </c>
@@ -9720,7 +9900,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>707</v>
       </c>
@@ -9728,7 +9908,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>708</v>
       </c>
@@ -9736,7 +9916,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>709</v>
       </c>
@@ -9744,7 +9924,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>710</v>
       </c>
@@ -9752,7 +9932,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>711</v>
       </c>
@@ -9760,7 +9940,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>712</v>
       </c>
@@ -9768,7 +9948,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>713</v>
       </c>
@@ -9776,7 +9956,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>714</v>
       </c>
@@ -9784,7 +9964,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>715</v>
       </c>
@@ -9792,7 +9972,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>716</v>
       </c>
@@ -9800,7 +9980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>717</v>
       </c>
@@ -9808,7 +9988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>718</v>
       </c>
@@ -9816,7 +9996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>719</v>
       </c>
@@ -9824,7 +10004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>720</v>
       </c>
@@ -9832,7 +10012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>721</v>
       </c>
@@ -9840,7 +10020,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>722</v>
       </c>
@@ -9848,7 +10028,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>723</v>
       </c>
@@ -9856,7 +10036,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>724</v>
       </c>
@@ -9864,7 +10044,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>725</v>
       </c>
@@ -9872,7 +10052,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>726</v>
       </c>
@@ -9880,7 +10060,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>727</v>
       </c>
@@ -9888,7 +10068,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>728</v>
       </c>
@@ -9896,7 +10076,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>729</v>
       </c>
@@ -9904,7 +10084,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>730</v>
       </c>
@@ -9912,7 +10092,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>731</v>
       </c>
@@ -9920,7 +10100,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>732</v>
       </c>
@@ -9928,7 +10108,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>733</v>
       </c>
@@ -9936,7 +10116,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>734</v>
       </c>
@@ -9944,7 +10124,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="737" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>735</v>
       </c>
@@ -9952,7 +10132,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>736</v>
       </c>
@@ -9960,7 +10140,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>737</v>
       </c>
@@ -9968,7 +10148,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>738</v>
       </c>
@@ -9976,7 +10156,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>739</v>
       </c>
@@ -9984,7 +10164,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>740</v>
       </c>
@@ -9992,7 +10172,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>741</v>
       </c>
@@ -10000,7 +10180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>742</v>
       </c>
@@ -10008,7 +10188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>743</v>
       </c>
@@ -10016,7 +10196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>744</v>
       </c>
@@ -10024,7 +10204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>745</v>
       </c>
@@ -10032,7 +10212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>746</v>
       </c>
@@ -10040,7 +10220,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>747</v>
       </c>
@@ -10048,7 +10228,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>748</v>
       </c>
@@ -10056,7 +10236,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>749</v>
       </c>
@@ -10064,7 +10244,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>750</v>
       </c>
@@ -10072,7 +10252,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>751</v>
       </c>
@@ -10080,7 +10260,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>752</v>
       </c>
@@ -10088,7 +10268,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>753</v>
       </c>
@@ -10096,7 +10276,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>754</v>
       </c>
@@ -10104,7 +10284,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>755</v>
       </c>
@@ -10112,7 +10292,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>756</v>
       </c>
@@ -10120,7 +10300,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>757</v>
       </c>
@@ -10128,7 +10308,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>758</v>
       </c>
@@ -10136,7 +10316,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>759</v>
       </c>
@@ -10144,7 +10324,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>760</v>
       </c>
@@ -10152,7 +10332,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>761</v>
       </c>
@@ -10160,7 +10340,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>762</v>
       </c>
@@ -10168,7 +10348,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>763</v>
       </c>
@@ -10176,7 +10356,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>764</v>
       </c>
@@ -10184,7 +10364,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>765</v>
       </c>
@@ -10192,7 +10372,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>766</v>
       </c>
@@ -10200,7 +10380,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>767</v>
       </c>
@@ -10208,7 +10388,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>768</v>
       </c>
@@ -10216,7 +10396,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="771" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>769</v>
       </c>
@@ -10224,7 +10404,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>770</v>
       </c>
@@ -10232,7 +10412,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="773" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>771</v>
       </c>
@@ -10240,7 +10420,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>772</v>
       </c>
@@ -10248,7 +10428,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>773</v>
       </c>
@@ -10256,7 +10436,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>774</v>
       </c>
@@ -10264,7 +10444,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>775</v>
       </c>
@@ -10272,7 +10452,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>776</v>
       </c>
@@ -10280,7 +10460,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>777</v>
       </c>
@@ -10288,7 +10468,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>778</v>
       </c>
@@ -10296,7 +10476,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>779</v>
       </c>
@@ -10304,7 +10484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>780</v>
       </c>
@@ -10312,7 +10492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>781</v>
       </c>
@@ -10320,7 +10500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>782</v>
       </c>
@@ -10328,7 +10508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>783</v>
       </c>
@@ -10336,7 +10516,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="786" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>784</v>
       </c>
@@ -10344,7 +10524,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>785</v>
       </c>
@@ -10352,7 +10532,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>786</v>
       </c>
@@ -10360,7 +10540,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>787</v>
       </c>
@@ -10368,7 +10548,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="790" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>788</v>
       </c>
@@ -10376,7 +10556,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="791" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>789</v>
       </c>
@@ -10384,7 +10564,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="792" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>790</v>
       </c>
@@ -10392,7 +10572,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="793" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>791</v>
       </c>
@@ -10400,7 +10580,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="794" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>792</v>
       </c>
@@ -10408,7 +10588,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="795" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
         <v>793</v>
       </c>
@@ -10416,7 +10596,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="796" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>794</v>
       </c>
@@ -10424,7 +10604,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="797" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
         <v>795</v>
       </c>
@@ -10432,7 +10612,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="798" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
         <v>796</v>
       </c>
@@ -10440,7 +10620,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="799" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
         <v>797</v>
       </c>
@@ -10448,7 +10628,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="800" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>798</v>
       </c>
@@ -10456,7 +10636,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
         <v>799</v>
       </c>
@@ -10464,7 +10644,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="802" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>800</v>
       </c>
@@ -10472,7 +10652,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="803" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
         <v>801</v>
       </c>
@@ -10480,7 +10660,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="804" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
         <v>802</v>
       </c>
@@ -10488,7 +10668,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="805" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
         <v>803</v>
       </c>
@@ -10496,7 +10676,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="806" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>804</v>
       </c>
@@ -10504,7 +10684,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="807" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
         <v>805</v>
       </c>
@@ -10512,7 +10692,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="808" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
         <v>806</v>
       </c>
@@ -10520,7 +10700,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="809" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>807</v>
       </c>
@@ -10528,7 +10708,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="810" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
         <v>808</v>
       </c>
@@ -10536,7 +10716,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="811" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>809</v>
       </c>
@@ -10544,7 +10724,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="812" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
         <v>810</v>
       </c>
@@ -10552,7 +10732,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
         <v>811</v>
       </c>
@@ -10560,7 +10740,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="814" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>812</v>
       </c>
@@ -10568,7 +10748,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="815" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
         <v>813</v>
       </c>
@@ -10576,7 +10756,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="816" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
         <v>814</v>
       </c>
@@ -10584,7 +10764,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="817" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
         <v>815</v>
       </c>
@@ -10592,7 +10772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="818" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>816</v>
       </c>
@@ -10600,7 +10780,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="819" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
         <v>817</v>
       </c>
@@ -10608,7 +10788,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="820" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>818</v>
       </c>
@@ -10616,7 +10796,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="821" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
         <v>819</v>
       </c>
@@ -10624,7 +10804,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="822" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
         <v>820</v>
       </c>
@@ -10632,7 +10812,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="823" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
         <v>821</v>
       </c>
@@ -10640,7 +10820,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="824" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>822</v>
       </c>
@@ -10648,7 +10828,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="825" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
         <v>823</v>
       </c>
@@ -10656,7 +10836,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="826" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>824</v>
       </c>
@@ -10664,7 +10844,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="827" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
         <v>825</v>
       </c>
@@ -10672,7 +10852,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="828" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
         <v>826</v>
       </c>
@@ -10680,7 +10860,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="829" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
         <v>827</v>
       </c>
@@ -10688,7 +10868,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="830" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>828</v>
       </c>
@@ -10696,7 +10876,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="831" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
         <v>829</v>
       </c>
@@ -10704,7 +10884,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="832" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
         <v>830</v>
       </c>
@@ -10712,7 +10892,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="833" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>831</v>
       </c>
@@ -10720,7 +10900,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="834" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
         <v>832</v>
       </c>
@@ -10728,7 +10908,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="835" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
         <v>833</v>
       </c>
@@ -10736,7 +10916,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="836" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>834</v>
       </c>
@@ -10744,7 +10924,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="837" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
         <v>835</v>
       </c>
@@ -10752,7 +10932,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="838" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
         <v>836</v>
       </c>
@@ -10760,7 +10940,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="839" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
         <v>837</v>
       </c>
@@ -10768,7 +10948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="840" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
         <v>838</v>
       </c>
@@ -10776,7 +10956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="841" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
         <v>839</v>
       </c>
@@ -10784,7 +10964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="842" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
         <v>840</v>
       </c>
@@ -10792,7 +10972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="843" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>841</v>
       </c>
@@ -10800,7 +10980,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="844" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
         <v>842</v>
       </c>
@@ -10808,7 +10988,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="845" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
         <v>843</v>
       </c>
@@ -10816,7 +10996,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="846" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
         <v>844</v>
       </c>
@@ -10824,7 +11004,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="847" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>845</v>
       </c>
@@ -10832,7 +11012,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="848" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
         <v>846</v>
       </c>
@@ -10840,7 +11020,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="849" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
         <v>847</v>
       </c>
@@ -10848,7 +11028,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="850" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>848</v>
       </c>
@@ -10856,7 +11036,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="851" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
         <v>849</v>
       </c>
@@ -10864,7 +11044,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="852" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
         <v>850</v>
       </c>
@@ -10872,7 +11052,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="853" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>851</v>
       </c>
@@ -10880,7 +11060,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="854" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
         <v>852</v>
       </c>
@@ -10888,7 +11068,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="855" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
         <v>853</v>
       </c>
@@ -10896,7 +11076,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
         <v>854</v>
       </c>
@@ -10904,7 +11084,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="857" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
         <v>855</v>
       </c>
@@ -10912,7 +11092,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="858" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
         <v>856</v>
       </c>
@@ -10920,7 +11100,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="859" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
         <v>857</v>
       </c>
@@ -10928,7 +11108,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="860" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
         <v>858</v>
       </c>
@@ -10936,7 +11116,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="861" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
         <v>859</v>
       </c>
@@ -10944,7 +11124,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="862" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
         <v>860</v>
       </c>
@@ -10952,7 +11132,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="863" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
         <v>861</v>
       </c>
@@ -10960,7 +11140,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="864" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A864" s="1" t="s">
         <v>862</v>
       </c>
@@ -10968,7 +11148,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="865" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
         <v>863</v>
       </c>
@@ -10976,7 +11156,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="866" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
         <v>864</v>
       </c>
@@ -10984,7 +11164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="867" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A867" s="1" t="s">
         <v>865</v>
       </c>
@@ -10992,7 +11172,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="868" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
         <v>866</v>
       </c>
@@ -11000,7 +11180,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="869" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
         <v>867</v>
       </c>
@@ -11008,7 +11188,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="870" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
         <v>868</v>
       </c>
@@ -11016,7 +11196,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="871" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
         <v>869</v>
       </c>
@@ -11024,7 +11204,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="872" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
         <v>870</v>
       </c>
@@ -11032,7 +11212,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="873" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A873" s="1" t="s">
         <v>871</v>
       </c>
@@ -11040,7 +11220,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="874" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
         <v>872</v>
       </c>
@@ -11048,7 +11228,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="875" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
         <v>873</v>
       </c>
@@ -11056,7 +11236,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="876" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A876" s="1" t="s">
         <v>874</v>
       </c>
@@ -11064,7 +11244,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="877" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
         <v>875</v>
       </c>
@@ -11072,7 +11252,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="878" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
         <v>876</v>
       </c>
@@ -11080,7 +11260,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="879" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A879" s="1" t="s">
         <v>877</v>
       </c>
@@ -11088,7 +11268,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="880" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
         <v>878</v>
       </c>
@@ -11096,7 +11276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="881" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
         <v>879</v>
       </c>
@@ -11104,7 +11284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="882" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
         <v>880</v>
       </c>
@@ -11112,7 +11292,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="883" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
         <v>881</v>
       </c>
@@ -11120,7 +11300,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="884" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
         <v>882</v>
       </c>
@@ -11128,7 +11308,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="885" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
         <v>883</v>
       </c>
@@ -11136,7 +11316,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="886" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
         <v>884</v>
       </c>
@@ -11144,7 +11324,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="887" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
         <v>885</v>
       </c>
@@ -11152,7 +11332,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="888" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
         <v>886</v>
       </c>
@@ -11160,7 +11340,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="889" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
         <v>887</v>
       </c>
@@ -11168,7 +11348,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="890" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
         <v>888</v>
       </c>
@@ -11176,7 +11356,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="891" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
         <v>889</v>
       </c>
@@ -11184,7 +11364,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="892" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
         <v>890</v>
       </c>
@@ -11192,7 +11372,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="893" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
         <v>891</v>
       </c>
@@ -11200,7 +11380,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
         <v>892</v>
       </c>
@@ -11208,7 +11388,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="895" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
         <v>893</v>
       </c>
@@ -11216,7 +11396,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="896" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
         <v>894</v>
       </c>
@@ -11224,7 +11404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="897" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
         <v>895</v>
       </c>
@@ -11232,7 +11412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="898" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
         <v>896</v>
       </c>
@@ -11240,7 +11420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="899" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
         <v>897</v>
       </c>
@@ -11248,7 +11428,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="900" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
         <v>898</v>
       </c>
@@ -11256,7 +11436,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="901" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
         <v>899</v>
       </c>
@@ -11264,7 +11444,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="902" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
         <v>900</v>
       </c>
@@ -11272,7 +11452,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="903" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A903" s="1" t="s">
         <v>901</v>
       </c>
@@ -11280,7 +11460,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="904" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
         <v>902</v>
       </c>
@@ -11288,7 +11468,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="905" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
         <v>903</v>
       </c>
@@ -11296,7 +11476,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="906" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
         <v>904</v>
       </c>
@@ -11304,7 +11484,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="907" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
         <v>905</v>
       </c>
@@ -11312,7 +11492,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="908" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
         <v>906</v>
       </c>
@@ -11320,7 +11500,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="909" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
         <v>907</v>
       </c>
@@ -11328,7 +11508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="910" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
         <v>908</v>
       </c>
@@ -11336,7 +11516,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="911" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
         <v>909</v>
       </c>
@@ -11344,7 +11524,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="912" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A912" s="1" t="s">
         <v>910</v>
       </c>
@@ -11352,7 +11532,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="913" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A913" s="1" t="s">
         <v>911</v>
       </c>
@@ -11360,7 +11540,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="914" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A914" s="1" t="s">
         <v>912</v>
       </c>
@@ -11368,7 +11548,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="915" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A915" s="1" t="s">
         <v>913</v>
       </c>
@@ -11376,7 +11556,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="916" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A916" s="1" t="s">
         <v>914</v>
       </c>
@@ -11384,7 +11564,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="917" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A917" s="1" t="s">
         <v>915</v>
       </c>
@@ -11392,7 +11572,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="918" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
         <v>916</v>
       </c>
@@ -11400,7 +11580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="919" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A919" s="1" t="s">
         <v>917</v>
       </c>
@@ -11408,7 +11588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="920" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A920" s="1" t="s">
         <v>918</v>
       </c>
@@ -11416,7 +11596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="921" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A921" s="1" t="s">
         <v>919</v>
       </c>
@@ -11424,7 +11604,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="922" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A922" s="1" t="s">
         <v>920</v>
       </c>
@@ -11432,7 +11612,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="923" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
         <v>921</v>
       </c>
@@ -11440,7 +11620,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="924" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
         <v>922</v>
       </c>
@@ -11448,7 +11628,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="925" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
         <v>923</v>
       </c>
@@ -11456,7 +11636,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="926" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A926" s="1" t="s">
         <v>924</v>
       </c>
@@ -11464,7 +11644,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="927" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A927" s="1" t="s">
         <v>925</v>
       </c>
@@ -11472,7 +11652,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="928" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A928" s="1" t="s">
         <v>926</v>
       </c>
@@ -11480,7 +11660,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="929" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A929" s="1" t="s">
         <v>927</v>
       </c>
@@ -11488,7 +11668,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="930" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
         <v>928</v>
       </c>
@@ -11496,7 +11676,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="931" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A931" s="1" t="s">
         <v>929</v>
       </c>
@@ -11504,7 +11684,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="932" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
         <v>930</v>
       </c>
@@ -11512,7 +11692,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="933" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A933" s="1" t="s">
         <v>931</v>
       </c>
@@ -11520,7 +11700,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="934" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A934" s="1" t="s">
         <v>932</v>
       </c>
@@ -11528,7 +11708,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="935" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A935" s="1" t="s">
         <v>933</v>
       </c>
@@ -11536,7 +11716,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="936" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A936" s="1" t="s">
         <v>934</v>
       </c>
@@ -11544,7 +11724,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="937" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A937" s="1" t="s">
         <v>935</v>
       </c>
@@ -11552,7 +11732,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="938" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A938" s="1" t="s">
         <v>936</v>
       </c>
@@ -11560,7 +11740,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="939" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A939" s="1" t="s">
         <v>937</v>
       </c>
@@ -11568,7 +11748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="940" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
         <v>938</v>
       </c>
@@ -11576,7 +11756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="941" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A941" s="1" t="s">
         <v>939</v>
       </c>
@@ -11584,7 +11764,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="942" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A942" s="1" t="s">
         <v>940</v>
       </c>
@@ -11592,7 +11772,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="943" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A943" s="1" t="s">
         <v>941</v>
       </c>
@@ -11600,7 +11780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="944" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A944" s="1" t="s">
         <v>942</v>
       </c>
@@ -11608,7 +11788,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="945" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A945" s="1" t="s">
         <v>943</v>
       </c>
@@ -11616,7 +11796,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="946" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A946" s="1" t="s">
         <v>944</v>
       </c>
@@ -11624,7 +11804,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="947" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A947" s="1" t="s">
         <v>945</v>
       </c>
@@ -11632,7 +11812,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="948" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A948" s="1" t="s">
         <v>946</v>
       </c>
@@ -11640,7 +11820,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="949" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
         <v>947</v>
       </c>
@@ -11648,7 +11828,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="950" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
         <v>948</v>
       </c>
@@ -11656,7 +11836,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="951" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A951" s="1" t="s">
         <v>949</v>
       </c>
@@ -11664,7 +11844,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="952" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A952" s="1" t="s">
         <v>950</v>
       </c>
@@ -11672,7 +11852,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="953" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A953" s="1" t="s">
         <v>951</v>
       </c>
@@ -11680,7 +11860,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="954" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A954" s="1" t="s">
         <v>952</v>
       </c>
@@ -11688,7 +11868,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="955" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A955" s="1" t="s">
         <v>953</v>
       </c>
@@ -11696,7 +11876,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="956" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A956" s="1" t="s">
         <v>954</v>
       </c>
@@ -11704,7 +11884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="957" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:2" ht="17.7" x14ac:dyDescent="0.3">
       <c r="A957" s="1" t="s">
         <v>955</v>
       </c>
